--- a/Networks/Parte3/Excel/Network56.xlsx
+++ b/Networks/Parte3/Excel/Network56.xlsx
@@ -724,172 +724,172 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.4299639586923999</v>
+        <v>-4.736562772613993</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.865616708328918</v>
+        <v>1.927222855031364</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.4656595460150153</v>
+        <v>-1.150646432203088</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.020818104525776</v>
+        <v>-0.4822949914155767</v>
       </c>
       <c r="F2" t="n">
-        <v>2.006686281129824</v>
+        <v>0.08132570271365788</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.508245136222246</v>
+        <v>-1.408189081765462</v>
       </c>
       <c r="H2" t="n">
-        <v>1.758424217761998</v>
+        <v>-1.770212530371294</v>
       </c>
       <c r="I2" t="n">
-        <v>1.016762828374222</v>
+        <v>-1.566003681992418</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2522778167288456</v>
+        <v>-2.000369135536255</v>
       </c>
       <c r="K2" t="n">
-        <v>-3.294201490612036</v>
+        <v>-2.289745146308567</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.326883017964987</v>
+        <v>-0.523798628377304</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.368731511624542</v>
+        <v>-2.225341533563786</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.5490680478758989</v>
+        <v>-2.952599158254118</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.911548944826729</v>
+        <v>-3.823732382681879</v>
       </c>
       <c r="P2" t="n">
-        <v>-5.880543316794363</v>
+        <v>0.9105847905536394</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.7360123404747841</v>
+        <v>-2.506530916647177</v>
       </c>
       <c r="R2" t="n">
-        <v>-2.904246138248056</v>
+        <v>-0.2201562890532651</v>
       </c>
       <c r="S2" t="n">
-        <v>-2.077477943429457</v>
+        <v>-4.586026602037109</v>
       </c>
       <c r="T2" t="n">
-        <v>-6.123151395693981</v>
+        <v>-4.968953345756661</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.9396581508117358</v>
+        <v>1.374401311212208</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.722283914127552</v>
+        <v>-2.794856438014225</v>
       </c>
       <c r="W2" t="n">
-        <v>-2.443510624254926</v>
+        <v>-1.946049926807367</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.3056217721945543</v>
+        <v>-0.9120206673001977</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.2448158160124212</v>
+        <v>-1.501093799981515</v>
       </c>
       <c r="Z2" t="n">
-        <v>-2.488763530030748</v>
+        <v>-3.918751693314909</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1.284092487053401</v>
+        <v>-2.226536236232154</v>
       </c>
       <c r="AB2" t="n">
-        <v>-2.309284977269568</v>
+        <v>-3.046887152374779</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.3284387414898374</v>
+        <v>-1.100928348505996</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.662244096425924</v>
+        <v>4.274460468719819</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.9198357498051256</v>
+        <v>0.6972162382274958</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.185640158886699</v>
+        <v>1.360918065365756</v>
       </c>
       <c r="AG2" t="n">
-        <v>-3.361170350284759</v>
+        <v>-2.209966970416904</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.4108659802419</v>
+        <v>-1.055514944424707</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.5900320168296421</v>
+        <v>-1.070496638640374</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.1568286735879273</v>
+        <v>-1.4629748765502</v>
       </c>
       <c r="AK2" t="n">
-        <v>-1.900077061406443</v>
+        <v>-2.335590337099777</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.5545980568706397</v>
+        <v>-2.624195932947097</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.5901150381192599</v>
+        <v>-4.457112898695642</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.638103594156387</v>
+        <v>0.5032805934132523</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.7283886323631431</v>
+        <v>-2.987774038767182</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.6857211472361704</v>
+        <v>-5.322020901049321</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-2.34866681648116</v>
+        <v>-1.438889295955306</v>
       </c>
       <c r="AR2" t="n">
-        <v>-1.697331808655388</v>
+        <v>-5.079777637236231</v>
       </c>
       <c r="AS2" t="n">
-        <v>-3.875065004576222</v>
+        <v>-0.6787715357091754</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.9454252826873255</v>
+        <v>-1.223756231340707</v>
       </c>
       <c r="AU2" t="n">
-        <v>-1.660393805092622</v>
+        <v>0.07435096069696016</v>
       </c>
       <c r="AV2" t="n">
-        <v>-1.409647879145371</v>
+        <v>-2.34481538281495</v>
       </c>
       <c r="AW2" t="n">
-        <v>-2.611006803575509</v>
+        <v>-0.1791886799533993</v>
       </c>
       <c r="AX2" t="n">
-        <v>-2.921632890960522</v>
+        <v>-1.516216487760057</v>
       </c>
       <c r="AY2" t="n">
-        <v>-2.307308964525074</v>
+        <v>0.747800888465589</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-2.898500267734124</v>
+        <v>-1.247267995079628</v>
       </c>
       <c r="BA2" t="n">
-        <v>-2.395880385542624</v>
+        <v>-1.865475258453739</v>
       </c>
       <c r="BB2" t="n">
-        <v>-6.244455814480477</v>
+        <v>-0.3209851327654635</v>
       </c>
       <c r="BC2" t="n">
-        <v>-1.500888060713159</v>
+        <v>-0.6075791448115787</v>
       </c>
       <c r="BD2" t="n">
-        <v>-1.192560164266669</v>
+        <v>-1.767211691490064</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.3923992385239858</v>
+        <v>-2.843787873392262</v>
       </c>
     </row>
     <row r="3">
@@ -899,172 +899,172 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4560863071016911</v>
+        <v>-0.6421340176691911</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.7705877702954735</v>
+        <v>0.1147319180156666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3255232986520238</v>
+        <v>-1.86828848253603</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1214743607980505</v>
+        <v>0.4055556196541231</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.7199938670670173</v>
+        <v>0.9024766063862502</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.9795484118337777</v>
+        <v>-0.2055325742745156</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03296562280489474</v>
+        <v>-0.7952814774191286</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1851682332204714</v>
+        <v>0.03017606540094582</v>
       </c>
       <c r="J3" t="n">
-        <v>1.550203892177238</v>
+        <v>-1.224881143291984</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.532982471296234</v>
+        <v>-1.881879591248947</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.7638116327224316</v>
+        <v>-5.735919588671791</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.378067234688845</v>
+        <v>-1.36727448908174</v>
       </c>
       <c r="N3" t="n">
-        <v>0.869418780751862</v>
+        <v>2.188514078526982</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2339721457729246</v>
+        <v>0.02929151104316</v>
       </c>
       <c r="P3" t="n">
-        <v>4.227849113226847</v>
+        <v>0.06728853901761078</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2938741863981108</v>
+        <v>-1.914178050591393</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.3091800666131406</v>
+        <v>0.7729707925977369</v>
       </c>
       <c r="S3" t="n">
-        <v>1.65525583643322</v>
+        <v>-1.6047416403963</v>
       </c>
       <c r="T3" t="n">
-        <v>-1.547587090724667</v>
+        <v>-0.9451625098463508</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2979826162062718</v>
+        <v>1.029570118953347</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.3694936847443204</v>
+        <v>0.50843270413261</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.09843474135769528</v>
+        <v>-1.946506589793071</v>
       </c>
       <c r="X3" t="n">
-        <v>-1.189321943486251</v>
+        <v>1.756702146590866</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.213433843360943</v>
+        <v>-0.5916758026490845</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.4046074475753648</v>
+        <v>-1.262815352634333</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.247193284234597</v>
+        <v>-0.5098778263644611</v>
       </c>
       <c r="AB3" t="n">
-        <v>-2.205971517917149</v>
+        <v>0.8444676070029863</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.3355149314869813</v>
+        <v>-1.403746057343889</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.9631030020834982</v>
+        <v>-2.17230380374126</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.06264522362722111</v>
+        <v>2.151164936332356</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.422947125816926</v>
+        <v>-0.3499722501755657</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0.3854551008878725</v>
+        <v>-0.5614978386298365</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.04505851523421295</v>
+        <v>0.6698791379184843</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.1270127317205416</v>
+        <v>-0.07447219922463566</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.9042120413311043</v>
+        <v>0.5480164244958791</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.2316928271643529</v>
+        <v>0.198443581711824</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.102661458770197</v>
+        <v>1.204393991510734</v>
       </c>
       <c r="AM3" t="n">
-        <v>-3.19566727194804</v>
+        <v>3.745953657680959</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.16132410792995</v>
+        <v>0.7957977947378599</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.809795741288847</v>
+        <v>0.07363706618022529</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.331517525541502</v>
+        <v>-1.505252435857912</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.063831306485996</v>
+        <v>-3.478751214398204</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0.4398670390146768</v>
+        <v>-0.7487922165797003</v>
       </c>
       <c r="AS3" t="n">
-        <v>-1.359317205785962</v>
+        <v>-0.5954832035052898</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.02972540083110187</v>
+        <v>0.4196996735759119</v>
       </c>
       <c r="AU3" t="n">
-        <v>2.001546737439234</v>
+        <v>0.3424682547508642</v>
       </c>
       <c r="AV3" t="n">
-        <v>-4.859161166217463</v>
+        <v>1.979867773872279</v>
       </c>
       <c r="AW3" t="n">
-        <v>-1.454477383054854</v>
+        <v>0.425734675633313</v>
       </c>
       <c r="AX3" t="n">
-        <v>-0.2717978615491824</v>
+        <v>0.4975580603551565</v>
       </c>
       <c r="AY3" t="n">
-        <v>-0.8091428028806316</v>
+        <v>0.493637414017745</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.03422034472245312</v>
+        <v>0.4559596988373125</v>
       </c>
       <c r="BA3" t="n">
-        <v>-0.5328370496238397</v>
+        <v>-0.1793704575194209</v>
       </c>
       <c r="BB3" t="n">
-        <v>-1.262946277214306</v>
+        <v>1.766537016682949</v>
       </c>
       <c r="BC3" t="n">
-        <v>-2.311114596891288</v>
+        <v>-1.507933163483222</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.02345220610073911</v>
+        <v>2.237419568996728</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.4403700291066646</v>
+        <v>-0.9766673928608375</v>
       </c>
     </row>
     <row r="4">
@@ -1074,172 +1074,172 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-3.828224916017909</v>
+        <v>4.343794683489698</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5452448684928467</v>
+        <v>-1.753447483057548</v>
       </c>
       <c r="D4" t="n">
-        <v>2.794598781311058</v>
+        <v>0.8011214538956869</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5986431352504661</v>
+        <v>-1.490594419496474</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.84636979350694</v>
+        <v>1.853641412182689</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.135501982535458</v>
+        <v>-1.057392030502561</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.052827496520309</v>
+        <v>-1.02388986484457</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.744425008643658</v>
+        <v>0.08422493347339667</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1854133528885718</v>
+        <v>-0.2407497384747684</v>
       </c>
       <c r="K4" t="n">
-        <v>-2.475899463137473</v>
+        <v>-3.30542999656467</v>
       </c>
       <c r="L4" t="n">
-        <v>-2.784065667532959</v>
+        <v>-2.693405921145921</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.112617625506718</v>
+        <v>1.546154178131014</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.9408755692369575</v>
+        <v>-0.8117727193456584</v>
       </c>
       <c r="O4" t="n">
-        <v>-1.13375369506213</v>
+        <v>4.059973148317282</v>
       </c>
       <c r="P4" t="n">
-        <v>1.995195610785724</v>
+        <v>-0.9665614879824848</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1.261725555492405</v>
+        <v>-4.769724756120948</v>
       </c>
       <c r="R4" t="n">
-        <v>7.197771341761188</v>
+        <v>-0.1668993831255243</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.2100512013736975</v>
+        <v>-0.6193999908092728</v>
       </c>
       <c r="T4" t="n">
-        <v>1.685087428670585</v>
+        <v>-0.2374421028386944</v>
       </c>
       <c r="U4" t="n">
-        <v>-2.22179245347033</v>
+        <v>5.621680494090789</v>
       </c>
       <c r="V4" t="n">
-        <v>-1.240052828467653</v>
+        <v>1.559635827669204</v>
       </c>
       <c r="W4" t="n">
-        <v>-1.595064997175799</v>
+        <v>6.237089298263119</v>
       </c>
       <c r="X4" t="n">
-        <v>-1.466000368480586</v>
+        <v>1.049530524007628</v>
       </c>
       <c r="Y4" t="n">
-        <v>-2.316665949706602</v>
+        <v>-1.364163516729252</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.224585166109207</v>
+        <v>-2.511254634194736</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.6540785945928392</v>
+        <v>2.050927754307942</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.9966422647037573</v>
+        <v>0.8417803881155956</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.5629173539591</v>
+        <v>0.8373047046189439</v>
       </c>
       <c r="AD4" t="n">
-        <v>-4.156230816591067</v>
+        <v>-3.133884884549075</v>
       </c>
       <c r="AE4" t="n">
-        <v>-1.794345106315726</v>
+        <v>-2.079896148276274</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.8247058191336791</v>
+        <v>-3.160631329286489</v>
       </c>
       <c r="AG4" t="n">
-        <v>-2.486039945255209</v>
+        <v>-1.819120216520785</v>
       </c>
       <c r="AH4" t="n">
-        <v>-1.573953357789402</v>
+        <v>-5.030311038949691</v>
       </c>
       <c r="AI4" t="n">
-        <v>-1.037775404356384</v>
+        <v>0.3214146873506556</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-1.835004196700641</v>
+        <v>-1.009394406745194</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.410636553599159</v>
+        <v>0.9149527892183522</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.1679103828483858</v>
+        <v>2.055313172152279</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.4829605705964948</v>
+        <v>1.301969629978996</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.648769882838645</v>
+        <v>0.2823922104380474</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.5195975911737311</v>
+        <v>2.254632855622394</v>
       </c>
       <c r="AP4" t="n">
-        <v>-4.626484779014797</v>
+        <v>3.490651543993059</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2.455694862343143</v>
+        <v>-1.576191418137082</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.8822462140643355</v>
+        <v>2.22750695818387</v>
       </c>
       <c r="AS4" t="n">
-        <v>5.000951538074649</v>
+        <v>1.540717691415817</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.272442854902535</v>
+        <v>-0.6652657878708272</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.28324305273198</v>
+        <v>-3.983220080093622</v>
       </c>
       <c r="AV4" t="n">
-        <v>-2.149622584524264</v>
+        <v>2.275079310650721</v>
       </c>
       <c r="AW4" t="n">
-        <v>2.535501625604075</v>
+        <v>-5.982207164765383</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.02119869855748124</v>
+        <v>2.034743360812864</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.2448939901659433</v>
+        <v>-2.438044414494846</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.2785230078955158</v>
+        <v>-3.481807676337203</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.9806153225806854</v>
+        <v>-1.93902256622519</v>
       </c>
       <c r="BB4" t="n">
-        <v>1.713739646364464</v>
+        <v>0.7257472475735119</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.7787365179901092</v>
+        <v>0.8091870808509578</v>
       </c>
       <c r="BD4" t="n">
-        <v>-2.629072711268969</v>
+        <v>1.150769571198008</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.677297057709088</v>
+        <v>-1.864209373046364</v>
       </c>
     </row>
     <row r="5">
@@ -1249,172 +1249,172 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.088408790510316</v>
+        <v>-1.540410982631267</v>
       </c>
       <c r="C5" t="n">
-        <v>2.508109913445792</v>
+        <v>-4.586166360875647</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3132828113223882</v>
+        <v>1.486482275106688</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1776739605261654</v>
+        <v>0.2004040217337357</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.181298223174026</v>
+        <v>-0.3268774754669994</v>
       </c>
       <c r="G5" t="n">
-        <v>1.076550496263857</v>
+        <v>0.5846162223007978</v>
       </c>
       <c r="H5" t="n">
-        <v>-3.736016170267368</v>
+        <v>-1.878384343598045</v>
       </c>
       <c r="I5" t="n">
-        <v>1.111627686815899</v>
+        <v>-1.13187272463115</v>
       </c>
       <c r="J5" t="n">
-        <v>-2.333101909423408</v>
+        <v>-1.029610226030109</v>
       </c>
       <c r="K5" t="n">
-        <v>1.422007594065353</v>
+        <v>0.683303267152507</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4670404404993208</v>
+        <v>-0.2667076698796063</v>
       </c>
       <c r="M5" t="n">
-        <v>1.593217639724842</v>
+        <v>3.110769301931398</v>
       </c>
       <c r="N5" t="n">
-        <v>1.548582858104053</v>
+        <v>1.491739863395271</v>
       </c>
       <c r="O5" t="n">
-        <v>1.186253146625889</v>
+        <v>0.3935683481404444</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2337913085190142</v>
+        <v>-3.17754674978597</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.796944183586138</v>
+        <v>0.8713049054699179</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.9252163572899054</v>
+        <v>-2.165020576815996</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9154190859537195</v>
+        <v>1.002981784125443</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.399102207359734</v>
+        <v>-0.1374236569153234</v>
       </c>
       <c r="U5" t="n">
-        <v>1.848285739783033</v>
+        <v>-1.289818690356002</v>
       </c>
       <c r="V5" t="n">
-        <v>0.07688382066948192</v>
+        <v>-2.270058356217661</v>
       </c>
       <c r="W5" t="n">
-        <v>0.7930081171810083</v>
+        <v>-1.616998076458546</v>
       </c>
       <c r="X5" t="n">
-        <v>1.686948787766918</v>
+        <v>-0.8831116805863732</v>
       </c>
       <c r="Y5" t="n">
-        <v>-1.285031236790256</v>
+        <v>1.360520856959195</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.686912530078244</v>
+        <v>2.573884173040235</v>
       </c>
       <c r="AA5" t="n">
-        <v>-1.113909697144816</v>
+        <v>0.3132945202428963</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.7653920777775586</v>
+        <v>-1.274407274207707</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.1466177380887047</v>
+        <v>-0.8316802244526112</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.118621208838194</v>
+        <v>-1.967545337120949</v>
       </c>
       <c r="AE5" t="n">
-        <v>-1.368426127935419</v>
+        <v>-1.190443136816391</v>
       </c>
       <c r="AF5" t="n">
-        <v>-3.051495318009621</v>
+        <v>0.7237809601894086</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.829043244823056</v>
+        <v>-1.30237773687367</v>
       </c>
       <c r="AH5" t="n">
-        <v>-4.274724029197942</v>
+        <v>2.041689383436329</v>
       </c>
       <c r="AI5" t="n">
-        <v>1.412645460094114</v>
+        <v>0.8662312592317416</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0.1173163811640349</v>
+        <v>0.5745061783174289</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0.3381365838221572</v>
+        <v>-0.1440411436714877</v>
       </c>
       <c r="AL5" t="n">
-        <v>-2.181293351863396</v>
+        <v>2.424086654383701</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.520274986470441</v>
+        <v>1.217796883721126</v>
       </c>
       <c r="AN5" t="n">
-        <v>-1.165465641557216</v>
+        <v>-0.1070687663992755</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.5740759455458702</v>
+        <v>1.883851348113155</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.812003986715345</v>
+        <v>-0.1742305988093898</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-1.955810226356263</v>
+        <v>0.833632478222474</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.09286129442119165</v>
+        <v>-0.6762980109304089</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0.4908844137554068</v>
+        <v>0.04915705609179751</v>
       </c>
       <c r="AT5" t="n">
-        <v>-0.08253938266981133</v>
+        <v>0.3327008664266145</v>
       </c>
       <c r="AU5" t="n">
-        <v>-1.335741279366246</v>
+        <v>1.064429311307699</v>
       </c>
       <c r="AV5" t="n">
-        <v>-1.325585718994531</v>
+        <v>-1.496615131961229</v>
       </c>
       <c r="AW5" t="n">
-        <v>-0.5438682925695293</v>
+        <v>1.992284815972386</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.3462156649306131</v>
+        <v>-0.3565923365196714</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.2818016525012066</v>
+        <v>0.3036690776868698</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.4733706724977317</v>
+        <v>1.959237500380375</v>
       </c>
       <c r="BA5" t="n">
-        <v>2.585174490147407</v>
+        <v>1.665126282993733</v>
       </c>
       <c r="BB5" t="n">
-        <v>-0.5575651283223301</v>
+        <v>-2.329797953483059</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.4960116317888429</v>
+        <v>0.2953711110478842</v>
       </c>
       <c r="BD5" t="n">
-        <v>2.556352918803474</v>
+        <v>-1.578499955731285</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.7213371297455941</v>
+        <v>-0.7931241901382308</v>
       </c>
     </row>
     <row r="6">
@@ -1424,172 +1424,172 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3863469357466169</v>
+        <v>-1.395016450884001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1435391846064835</v>
+        <v>1.171297348284483</v>
       </c>
       <c r="D6" t="n">
-        <v>4.747064201349255</v>
+        <v>1.96401975121171</v>
       </c>
       <c r="E6" t="n">
-        <v>1.218095348496422</v>
+        <v>1.315718608162495</v>
       </c>
       <c r="F6" t="n">
-        <v>1.281463960306438</v>
+        <v>4.4703400821879</v>
       </c>
       <c r="G6" t="n">
-        <v>1.046181152746871</v>
+        <v>0.2035069636558591</v>
       </c>
       <c r="H6" t="n">
-        <v>1.85470074013203</v>
+        <v>1.520377387316351</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3214543803316649</v>
+        <v>3.076992891201914</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.03558461620839</v>
+        <v>2.247696343907769</v>
       </c>
       <c r="K6" t="n">
-        <v>2.760595558072233</v>
+        <v>2.317657939760486</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6478204869705814</v>
+        <v>1.251115988988115</v>
       </c>
       <c r="M6" t="n">
-        <v>3.881887298812515</v>
+        <v>0.6500271249040525</v>
       </c>
       <c r="N6" t="n">
-        <v>-1.418358950370714</v>
+        <v>-0.6907683329983842</v>
       </c>
       <c r="O6" t="n">
-        <v>1.790497488885286</v>
+        <v>-0.7554571802116524</v>
       </c>
       <c r="P6" t="n">
-        <v>-1.126680633705202</v>
+        <v>0.3394118435825815</v>
       </c>
       <c r="Q6" t="n">
-        <v>-2.304160643334997</v>
+        <v>1.231924087026443</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4496102452114856</v>
+        <v>-3.824619190444887</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1215762388867312</v>
+        <v>0.5063233589890022</v>
       </c>
       <c r="T6" t="n">
-        <v>-5.965715643974756</v>
+        <v>-6.570493835374505</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.9238404073874027</v>
+        <v>-0.2862855336216344</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1318620589966772</v>
+        <v>1.668783465404911</v>
       </c>
       <c r="W6" t="n">
-        <v>-1.197046193329651</v>
+        <v>0.3098695243023337</v>
       </c>
       <c r="X6" t="n">
-        <v>0.4718365988986701</v>
+        <v>0.6411623828548696</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.764109692457824</v>
+        <v>-2.54087838194786</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.07889155432052232</v>
+        <v>2.440775713582125</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.1557502155688259</v>
+        <v>2.413857241455273</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.125524582337334</v>
+        <v>0.1108925828568418</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.338194006393384</v>
+        <v>1.963286697177745</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.1321036253443089</v>
+        <v>1.659248141755379</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.550359784471611</v>
+        <v>5.931242835813574</v>
       </c>
       <c r="AF6" t="n">
-        <v>-1.564479190764539</v>
+        <v>0.7767161023996038</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.28353890786426</v>
+        <v>1.439339112132075</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.273272531477703</v>
+        <v>-0.969470195921684</v>
       </c>
       <c r="AI6" t="n">
-        <v>-1.779193606082893</v>
+        <v>0.03750606820100372</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2.255197394375866</v>
+        <v>0.9497038434675086</v>
       </c>
       <c r="AK6" t="n">
-        <v>3.127879303617267</v>
+        <v>-0.3211517217480025</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.6505310128082575</v>
+        <v>-1.023969486217519</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0.4687055189778873</v>
+        <v>-1.263672033855066</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.3812492063384557</v>
+        <v>3.720015157357081</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.329678907621934</v>
+        <v>-0.08497481230148113</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0.5992206489210179</v>
+        <v>-5.275452181040649</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-2.650243708252401</v>
+        <v>3.41834747879714</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.9063052393958014</v>
+        <v>-3.152940552947597</v>
       </c>
       <c r="AS6" t="n">
-        <v>-2.789136026335953</v>
+        <v>3.242413316598213</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.324697519707149</v>
+        <v>1.178214241268746</v>
       </c>
       <c r="AU6" t="n">
-        <v>-2.797194923623958</v>
+        <v>0.1215244616846897</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.307037280607303</v>
+        <v>-2.407081925503253</v>
       </c>
       <c r="AW6" t="n">
-        <v>-0.6846542025132616</v>
+        <v>-0.5621375052399921</v>
       </c>
       <c r="AX6" t="n">
-        <v>-3.739968321717293</v>
+        <v>4.262622847806915</v>
       </c>
       <c r="AY6" t="n">
-        <v>-4.549186595895881</v>
+        <v>1.43663944567819</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1.021804883109781</v>
+        <v>-1.539639840234868</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.2606397809841325</v>
+        <v>-2.08112314151567</v>
       </c>
       <c r="BB6" t="n">
-        <v>-5.356378561947314</v>
+        <v>-0.2556295469107644</v>
       </c>
       <c r="BC6" t="n">
-        <v>1.911726047630123</v>
+        <v>-0.03075932367527539</v>
       </c>
       <c r="BD6" t="n">
-        <v>-4.100667070461639</v>
+        <v>-2.963369315824655</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.500270512605657</v>
+        <v>1.827649906484409</v>
       </c>
     </row>
     <row r="7">
@@ -1599,172 +1599,172 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3851701727277639</v>
+        <v>-1.13841041585972</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.406498380413278</v>
+        <v>0.4130509174084249</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.213550211589156</v>
+        <v>-1.07361589166466</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5550236219994259</v>
+        <v>0.01250417309335357</v>
       </c>
       <c r="F7" t="n">
-        <v>3.399803450414082</v>
+        <v>-1.054419703746822</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.6264216944230228</v>
+        <v>-0.3009419727005515</v>
       </c>
       <c r="H7" t="n">
-        <v>2.681840777041321</v>
+        <v>-0.3676120263570838</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.619375607609437</v>
+        <v>1.304159214096813</v>
       </c>
       <c r="J7" t="n">
-        <v>1.701145973473095</v>
+        <v>1.360339372687958</v>
       </c>
       <c r="K7" t="n">
-        <v>2.557050035872842</v>
+        <v>-0.9120620189420635</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.353911225791605</v>
+        <v>6.271145179313127</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.1074305212764262</v>
+        <v>-4.315305892217111</v>
       </c>
       <c r="N7" t="n">
-        <v>-1.934991676883684</v>
+        <v>0.0660929735423026</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8723955262954564</v>
+        <v>-2.616736980257448</v>
       </c>
       <c r="P7" t="n">
-        <v>-6.569377143238132</v>
+        <v>-0.2586174011912902</v>
       </c>
       <c r="Q7" t="n">
-        <v>-2.005400099614981</v>
+        <v>-1.986673753220361</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.371598075340432</v>
+        <v>0.3805460111063725</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.1332116500230768</v>
+        <v>6.752872380319373</v>
       </c>
       <c r="T7" t="n">
-        <v>0.648581313594188</v>
+        <v>1.00408995040141</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.4813229509364134</v>
+        <v>2.841609710492126</v>
       </c>
       <c r="V7" t="n">
-        <v>-1.43709143496197</v>
+        <v>0.7702657901980848</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3178853676106349</v>
+        <v>-1.445720861847872</v>
       </c>
       <c r="X7" t="n">
-        <v>-4.41101545680497</v>
+        <v>4.057524380306203</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.34684820429263</v>
+        <v>-1.358935144902625</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.450228862596346</v>
+        <v>0.5681575194391264</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.076944884434409</v>
+        <v>1.684816514504295</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.985627319963937</v>
+        <v>-0.808272023247235</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.1101516906532368</v>
+        <v>1.819304518337308</v>
       </c>
       <c r="AD7" t="n">
-        <v>-1.958620304661509</v>
+        <v>5.823254997081887</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.25048918839495</v>
+        <v>1.938661222882985</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.03424689682193452</v>
+        <v>-3.906415699678133</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.982016217506946</v>
+        <v>0.6741271017153815</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.059254111750156</v>
+        <v>0.3716071308029997</v>
       </c>
       <c r="AI7" t="n">
-        <v>-1.725059738842087</v>
+        <v>-1.322124826725318</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.7618434768599668</v>
+        <v>-0.06841988122097084</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.9342196481489198</v>
+        <v>-1.047090288891012</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.892063625461404</v>
+        <v>1.443442280167043</v>
       </c>
       <c r="AM7" t="n">
-        <v>-5.694896848191019</v>
+        <v>-3.105556789171704</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.210271204151084</v>
+        <v>0.4785656708919283</v>
       </c>
       <c r="AO7" t="n">
-        <v>-1.017699672640472</v>
+        <v>1.232472274067318</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.1042971647929928</v>
+        <v>-0.2354107103829232</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.576936666525809</v>
+        <v>2.643196592122528</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.295863701805335</v>
+        <v>-0.02721886715463709</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0.7364339237779252</v>
+        <v>-1.333672221515083</v>
       </c>
       <c r="AT7" t="n">
-        <v>-0.741049568915208</v>
+        <v>0.1056051111932993</v>
       </c>
       <c r="AU7" t="n">
-        <v>1.134620893359137</v>
+        <v>0.3777198828545954</v>
       </c>
       <c r="AV7" t="n">
-        <v>4.454429094322752</v>
+        <v>2.010887444496113</v>
       </c>
       <c r="AW7" t="n">
-        <v>-0.8482574477485961</v>
+        <v>0.7408885867350734</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.2497635744382124</v>
+        <v>0.9831811800726572</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0.1613039792673416</v>
+        <v>0.1287300515010396</v>
       </c>
       <c r="AZ7" t="n">
-        <v>3.016678738850376</v>
+        <v>-0.5661489315193613</v>
       </c>
       <c r="BA7" t="n">
-        <v>-2.243692667457271</v>
+        <v>-1.61249129489862</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.6604366629320774</v>
+        <v>3.268914096927454</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0.7351593231980754</v>
+        <v>-1.98923623587299</v>
       </c>
       <c r="BD7" t="n">
-        <v>-2.306661495117612</v>
+        <v>1.36295750467611</v>
       </c>
       <c r="BE7" t="n">
-        <v>-3.59206663519336</v>
+        <v>2.421876681853764</v>
       </c>
     </row>
   </sheetData>
@@ -1820,19 +1820,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.179048644260675</v>
+        <v>-2.902531546438103</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.176186091179036</v>
+        <v>-1.908836734521598</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.329973797409084</v>
+        <v>-2.316993211864239</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.4394406953940601</v>
+        <v>-1.871429772137607</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.8290603956278407</v>
+        <v>-0.6940018703718532</v>
       </c>
     </row>
     <row r="3">
@@ -1842,19 +1842,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3408715221873624</v>
+        <v>-1.686269248586697</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.05741464122045</v>
+        <v>-1.465993124664347</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.548809734448618</v>
+        <v>1.04168876312841</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5050024147790363</v>
+        <v>-1.715322137500982</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.03412249651467451</v>
+        <v>-1.659920026972382</v>
       </c>
     </row>
     <row r="4">
@@ -1864,19 +1864,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.004539146104312</v>
+        <v>-0.2384506441090836</v>
       </c>
       <c r="C4" t="n">
-        <v>2.004227746497163</v>
+        <v>-4.938273927363273</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3130632550591647</v>
+        <v>-0.1315927722835478</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.000166387608292</v>
+        <v>1.554626625894447</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.5499186719035311</v>
+        <v>-0.04774413072987756</v>
       </c>
     </row>
     <row r="5">
@@ -1886,19 +1886,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3767155145897111</v>
+        <v>-0.01077780424351718</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.6149453919007711</v>
+        <v>1.785839390273015</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.937740747281682</v>
+        <v>-2.040278170289408</v>
       </c>
       <c r="E5" t="n">
-        <v>1.554398930019586</v>
+        <v>-0.1668991357451398</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1709355916245144</v>
+        <v>0.6701960184951785</v>
       </c>
     </row>
     <row r="6">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.427205848388764</v>
+        <v>0.2056203812479533</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.354219708352995</v>
+        <v>0.7582530364169875</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.667254276103649</v>
+        <v>-1.950489980040857</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.8030666248026378</v>
+        <v>-0.5082321988369969</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.09841685281620333</v>
+        <v>-0.8051105150077688</v>
       </c>
     </row>
     <row r="7">
@@ -1930,19 +1930,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3852744083196535</v>
+        <v>1.537345722951847</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.862371379435483</v>
+        <v>-0.6088686397540634</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.9857781453679951</v>
+        <v>-3.960651701841484</v>
       </c>
       <c r="E7" t="n">
-        <v>1.697147588998594</v>
+        <v>0.1800009536920915</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3998877839495298</v>
+        <v>-0.08045339425437056</v>
       </c>
     </row>
     <row r="8">
@@ -1952,19 +1952,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.072035461100979</v>
+        <v>-0.7783868483186519</v>
       </c>
       <c r="C8" t="n">
-        <v>1.753876634962229</v>
+        <v>0.5614697512896371</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.761318039995786</v>
+        <v>-1.283609633795286</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.97123352463907</v>
+        <v>-1.09880202502131</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.845756756296102</v>
+        <v>-0.6858239337628085</v>
       </c>
     </row>
     <row r="9">
@@ -1974,19 +1974,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5787404234996949</v>
+        <v>-0.2967616443036916</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.121039684355201</v>
+        <v>-2.127279304974489</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.748418325015564</v>
+        <v>1.001104782882773</v>
       </c>
       <c r="E9" t="n">
-        <v>2.023074900195199</v>
+        <v>-0.5880056699238813</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.7782306446319147</v>
+        <v>0.7235082434401494</v>
       </c>
     </row>
     <row r="10">
@@ -1996,19 +1996,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.748546980492832</v>
+        <v>2.170274644688464</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.2021377793760877</v>
+        <v>-1.928981746012735</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.7608364989952165</v>
+        <v>-0.1790159832044959</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5720915029948632</v>
+        <v>1.044211499675402</v>
       </c>
       <c r="F10" t="n">
-        <v>1.183485632120403</v>
+        <v>-0.05172944397047984</v>
       </c>
     </row>
     <row r="11">
@@ -2018,19 +2018,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.047900983877175</v>
+        <v>2.734401991213722</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.135152897464495</v>
+        <v>-1.052168623112992</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9223943895595601</v>
+        <v>0.3641667492412264</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5525688674925912</v>
+        <v>-0.4609266168182499</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.168227489720984</v>
+        <v>1.362723767277141</v>
       </c>
     </row>
     <row r="12">
@@ -2040,19 +2040,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.966813144471376</v>
+        <v>-0.4478073958318367</v>
       </c>
       <c r="C12" t="n">
-        <v>2.888501429560738</v>
+        <v>3.415170086056613</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.9285940377891124</v>
+        <v>-0.37286036470686</v>
       </c>
       <c r="E12" t="n">
-        <v>-4.145615975270976</v>
+        <v>-2.402134586959526</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8047178025257901</v>
+        <v>-2.247615571188536</v>
       </c>
     </row>
     <row r="13">
@@ -2062,19 +2062,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.19646777717351</v>
+        <v>1.964737142947986</v>
       </c>
       <c r="C13" t="n">
-        <v>1.151298521295766</v>
+        <v>-0.7692016484352788</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.8621278621293897</v>
+        <v>4.052633684440002</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.72100072358627</v>
+        <v>-3.741096486823766</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.930408215984226</v>
+        <v>0.3736458255110542</v>
       </c>
     </row>
     <row r="14">
@@ -2084,19 +2084,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.579750163974706</v>
+        <v>-3.671103441262151</v>
       </c>
       <c r="C14" t="n">
-        <v>2.81851761709242</v>
+        <v>1.742256257029068</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.807271992087986</v>
+        <v>-2.530330536357873</v>
       </c>
       <c r="E14" t="n">
-        <v>-3.365341669411334</v>
+        <v>-4.7263602865191</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4853614500185643</v>
+        <v>1.328383363195524</v>
       </c>
     </row>
     <row r="15">
@@ -2106,19 +2106,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.765872418573423</v>
+        <v>-1.455757896381866</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5148167090135127</v>
+        <v>1.303918559374768</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.08255416159998659</v>
+        <v>-0.9382790249933527</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7931017488669833</v>
+        <v>-2.55386991372757</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9429773154947196</v>
+        <v>0.6728488924357413</v>
       </c>
     </row>
     <row r="16">
@@ -2128,19 +2128,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.020142272166441</v>
+        <v>-2.193463713110844</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4023318451399491</v>
+        <v>-3.176694604889237</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.7656547430936</v>
+        <v>0.9444416786671153</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.775097306879164</v>
+        <v>-1.423635226658869</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1051099936616218</v>
+        <v>0.4913534082093494</v>
       </c>
     </row>
     <row r="17">
@@ -2150,19 +2150,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.839957712442805</v>
+        <v>-1.039836683483088</v>
       </c>
       <c r="C17" t="n">
-        <v>1.335484907876069</v>
+        <v>-2.867792825294492</v>
       </c>
       <c r="D17" t="n">
-        <v>3.937825227011016</v>
+        <v>-1.124872209315308</v>
       </c>
       <c r="E17" t="n">
-        <v>-5.391890036105712</v>
+        <v>0.1639622125858416</v>
       </c>
       <c r="F17" t="n">
-        <v>0.155362538972454</v>
+        <v>0.2251797980089712</v>
       </c>
     </row>
     <row r="18">
@@ -2172,19 +2172,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.976646085991916</v>
+        <v>0.4205091136326243</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3610958493730004</v>
+        <v>3.385932808673585</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.7714260473151359</v>
+        <v>-0.6755321334490914</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5474775322633454</v>
+        <v>-2.636481743738232</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.796040565662703</v>
+        <v>-4.669284320810092</v>
       </c>
     </row>
     <row r="19">
@@ -2194,19 +2194,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.952561648076738</v>
+        <v>-1.680129512843183</v>
       </c>
       <c r="C19" t="n">
-        <v>-3.619440784063998</v>
+        <v>-2.620977433515089</v>
       </c>
       <c r="D19" t="n">
-        <v>1.563811428181684</v>
+        <v>-0.2503634068900997</v>
       </c>
       <c r="E19" t="n">
-        <v>-2.41663225650607</v>
+        <v>3.942599293919562</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6219218992726752</v>
+        <v>0.9602846631855634</v>
       </c>
     </row>
     <row r="20">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.132347343879946</v>
+        <v>2.79913556299375</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6643127421462761</v>
+        <v>-0.5747794522746799</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4303631671173729</v>
+        <v>2.014347854461357</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.6628861469879056</v>
+        <v>-3.697621486878039</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5963028712807593</v>
+        <v>-3.89271000289247</v>
       </c>
     </row>
     <row r="21">
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.07530567755472875</v>
+        <v>-1.476780782901167</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.3438643970065133</v>
+        <v>-0.008318634272589488</v>
       </c>
       <c r="D21" t="n">
-        <v>2.297902891759254</v>
+        <v>2.339186407961546</v>
       </c>
       <c r="E21" t="n">
-        <v>-2.771948874925691</v>
+        <v>-3.589791732632257</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.322625946718124</v>
+        <v>-2.363497062610954</v>
       </c>
     </row>
     <row r="22">
@@ -2260,19 +2260,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.4927271906545574</v>
+        <v>-3.368754655492978</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.8275359565978224</v>
+        <v>-2.915013417657064</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.5075552204993897</v>
+        <v>-0.5539024130386868</v>
       </c>
       <c r="E22" t="n">
-        <v>1.710944511755021</v>
+        <v>-2.827912538294115</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.7152618165022741</v>
+        <v>3.843044075413967</v>
       </c>
     </row>
     <row r="23">
@@ -2282,19 +2282,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.4465969068285477</v>
+        <v>-1.812328041667233</v>
       </c>
       <c r="C23" t="n">
-        <v>1.275439903265401</v>
+        <v>-0.8835799613264574</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.3952643972567309</v>
+        <v>1.039683627041454</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.303187903205327</v>
+        <v>-0.9424893683932548</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.48233156710629</v>
+        <v>-2.140707280495686</v>
       </c>
     </row>
     <row r="24">
@@ -2304,19 +2304,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1.123524674311626</v>
+        <v>-2.942384900412749</v>
       </c>
       <c r="C24" t="n">
-        <v>1.417104400912243</v>
+        <v>-0.07580705626099293</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.34466428383988</v>
+        <v>1.373446117435891</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1232190840594435</v>
+        <v>-2.231047283889969</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.6373025464257976</v>
+        <v>1.084427535197042</v>
       </c>
     </row>
     <row r="25">
@@ -2326,19 +2326,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-1.829064831033574</v>
+        <v>1.072460139457163</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.2491838862755295</v>
+        <v>-1.900800968688771</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.958771091784318</v>
+        <v>-1.481533151099293</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.6429882240832121</v>
+        <v>-0.9593973997450114</v>
       </c>
       <c r="F25" t="n">
-        <v>2.785566624178347</v>
+        <v>-4.314237625362438</v>
       </c>
     </row>
     <row r="26">
@@ -2348,19 +2348,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.532455815297868</v>
+        <v>-2.577255301445763</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.607284846931914</v>
+        <v>0.2065549871297967</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.40889083483453</v>
+        <v>-1.522306577526581</v>
       </c>
       <c r="E26" t="n">
-        <v>2.280470113239139</v>
+        <v>-0.2465907994909906</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.2281691172640615</v>
+        <v>-1.688408192379092</v>
       </c>
     </row>
     <row r="27">
@@ -2370,19 +2370,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.03318082774455174</v>
+        <v>1.313579660337611</v>
       </c>
       <c r="C27" t="n">
-        <v>-2.61107548398998</v>
+        <v>2.94050778286907</v>
       </c>
       <c r="D27" t="n">
-        <v>1.765481831161636</v>
+        <v>-1.062126543436015</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2117739922418359</v>
+        <v>-4.58424471092445</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.6380224425475597</v>
+        <v>-2.468877741121101</v>
       </c>
     </row>
     <row r="28">
@@ -2392,19 +2392,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.07680171950872773</v>
+        <v>-0.2758180054576513</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.4682930795570254</v>
+        <v>-2.434615628090929</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.267269665012749</v>
+        <v>-0.216810952057472</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.631177056772255</v>
+        <v>0.8877797311991056</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.492965307203227</v>
+        <v>2.681088012744904</v>
       </c>
     </row>
     <row r="29">
@@ -2414,19 +2414,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.8250325384839112</v>
+        <v>-0.286376496089357</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.712286546774645</v>
+        <v>0.01723284621926601</v>
       </c>
       <c r="D29" t="n">
-        <v>1.652117353084566</v>
+        <v>1.360906819672333</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.726594140026627</v>
+        <v>-0.02746592263446345</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.9946731060420396</v>
+        <v>-0.7206501690626259</v>
       </c>
     </row>
     <row r="30">
@@ -2436,19 +2436,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.8927097479735772</v>
+        <v>1.028976912170078</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4697276623740286</v>
+        <v>-2.134576795128002</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.862014022581476</v>
+        <v>0.07424177387266728</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.6051592322652296</v>
+        <v>-0.3970588855191797</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.4671966715818648</v>
+        <v>1.137093759226879</v>
       </c>
     </row>
     <row r="31">
@@ -2458,19 +2458,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.261098892376532</v>
+        <v>0.3387820412876129</v>
       </c>
       <c r="C31" t="n">
-        <v>1.178651966638218</v>
+        <v>-3.732497343313197</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.4533949678703404</v>
+        <v>-2.981078810490918</v>
       </c>
       <c r="E31" t="n">
-        <v>1.523997929815003</v>
+        <v>3.474373691494313</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.154913795097733</v>
+        <v>-1.14672554666763</v>
       </c>
     </row>
     <row r="32">
@@ -2480,19 +2480,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.078030180166873</v>
+        <v>0.4146818786911446</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.843994859556084</v>
+        <v>-1.153077000827018</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2601623387287813</v>
+        <v>-2.335727318711293</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3892876679316133</v>
+        <v>2.671784890042386</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.5255440207691039</v>
+        <v>-1.97396268465687</v>
       </c>
     </row>
     <row r="33">
@@ -2502,19 +2502,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-2.530933496684391</v>
+        <v>-3.313458116090469</v>
       </c>
       <c r="C33" t="n">
-        <v>-3.386533504275667</v>
+        <v>-1.15867570485407</v>
       </c>
       <c r="D33" t="n">
-        <v>-2.031323570553329</v>
+        <v>-1.505154247444703</v>
       </c>
       <c r="E33" t="n">
-        <v>1.621074108626122</v>
+        <v>-0.9599491177433351</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9674011231815456</v>
+        <v>3.590016606787652</v>
       </c>
     </row>
     <row r="34">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.481169284079751</v>
+        <v>1.291088264924821</v>
       </c>
       <c r="C34" t="n">
-        <v>1.773056895126337</v>
+        <v>-2.49330379361856</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2858468298703939</v>
+        <v>-0.7399634856181392</v>
       </c>
       <c r="E34" t="n">
-        <v>-3.522271130091924</v>
+        <v>-1.574832647717831</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.096797885367236</v>
+        <v>0.1766324251382517</v>
       </c>
     </row>
     <row r="35">
@@ -2546,19 +2546,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.743406039265407</v>
+        <v>0.2060861925354955</v>
       </c>
       <c r="C35" t="n">
-        <v>-3.199817222688962</v>
+        <v>-1.024535359542938</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.417219868034649</v>
+        <v>-1.847827919933567</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9141178946703221</v>
+        <v>2.874282541138432</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4680329862164028</v>
+        <v>-0.6210258293475962</v>
       </c>
     </row>
     <row r="36">
@@ -2568,19 +2568,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-2.334424849984333</v>
+        <v>-1.988991062820184</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8237085483129127</v>
+        <v>0.3342932738582337</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.9758881568262028</v>
+        <v>-0.2322224297478991</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1202686093836535</v>
+        <v>-0.7072209342126033</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5260506717142778</v>
+        <v>-0.07018031208647589</v>
       </c>
     </row>
     <row r="37">
@@ -2590,19 +2590,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.340131368434276</v>
+        <v>0.06048794020415562</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.02141755614959982</v>
+        <v>0.4268197177051662</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.473857080906205</v>
+        <v>-1.944596513281452</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4704064215317744</v>
+        <v>-1.698936050846958</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.418761536661609</v>
+        <v>-0.5713601933691613</v>
       </c>
     </row>
     <row r="38">
@@ -2612,19 +2612,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.28207635212837</v>
+        <v>-1.05746486352384</v>
       </c>
       <c r="C38" t="n">
-        <v>-3.170142687722013</v>
+        <v>-0.4564287706782996</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.365899336079891</v>
+        <v>0.4164816484138689</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5543791313829544</v>
+        <v>-0.4834622497428656</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9729827893344121</v>
+        <v>-0.3173068330699623</v>
       </c>
     </row>
     <row r="39">
@@ -2634,19 +2634,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.6293015989384714</v>
+        <v>0.4600474820769229</v>
       </c>
       <c r="C39" t="n">
-        <v>-2.605036731516724</v>
+        <v>-1.546970514544331</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8449360693269368</v>
+        <v>1.452487804592264</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1734675014081565</v>
+        <v>-0.1647988233743757</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.324430270877919</v>
+        <v>-0.7245253325052441</v>
       </c>
     </row>
     <row r="40">
@@ -2656,19 +2656,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-2.608315184033458</v>
+        <v>-0.9564643654790634</v>
       </c>
       <c r="C40" t="n">
-        <v>0.06751750664612562</v>
+        <v>0.1493814043320784</v>
       </c>
       <c r="D40" t="n">
-        <v>2.051280579269786</v>
+        <v>2.536016432557566</v>
       </c>
       <c r="E40" t="n">
-        <v>-2.812604271013635</v>
+        <v>-2.43339573453361</v>
       </c>
       <c r="F40" t="n">
-        <v>3.882999615623995</v>
+        <v>0.3979942660740785</v>
       </c>
     </row>
     <row r="41">
@@ -2678,19 +2678,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1.16846597183534</v>
+        <v>-0.06276729919639731</v>
       </c>
       <c r="C41" t="n">
-        <v>-3.703017502347394</v>
+        <v>-0.6189446403899157</v>
       </c>
       <c r="D41" t="n">
-        <v>-1.268157440057817</v>
+        <v>-1.613771134042789</v>
       </c>
       <c r="E41" t="n">
-        <v>-3.66373048463759</v>
+        <v>1.053244440413238</v>
       </c>
       <c r="F41" t="n">
-        <v>3.261014036719821</v>
+        <v>-0.07005857760234492</v>
       </c>
     </row>
     <row r="42">
@@ -2700,19 +2700,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.3028700383302028</v>
+        <v>0.5915107825038859</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.0001436858686767776</v>
+        <v>-2.571746983610327</v>
       </c>
       <c r="D42" t="n">
-        <v>-1.876968805466908</v>
+        <v>1.762487075007527</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.5583442549048222</v>
+        <v>0.5277992146675973</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.1904245200946225</v>
+        <v>-0.8285141671573839</v>
       </c>
     </row>
     <row r="43">
@@ -2722,19 +2722,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.0005156889550024109</v>
+        <v>-0.07333003626560955</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2183314755386817</v>
+        <v>-2.125175554280521</v>
       </c>
       <c r="D43" t="n">
-        <v>-2.472173799127862</v>
+        <v>2.388348510588419</v>
       </c>
       <c r="E43" t="n">
-        <v>2.539659305343204</v>
+        <v>-2.975313292164886</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.193722563974657</v>
+        <v>0.4932484312357495</v>
       </c>
     </row>
     <row r="44">
@@ -2744,19 +2744,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-2.173979893372826</v>
+        <v>1.184337328268966</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.18454586706112</v>
+        <v>3.601746369376951</v>
       </c>
       <c r="D44" t="n">
-        <v>1.510213208099822</v>
+        <v>-0.7456689135911693</v>
       </c>
       <c r="E44" t="n">
-        <v>3.717794084208432</v>
+        <v>-5.094617801002798</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.341310375955694</v>
+        <v>-0.6320366089645767</v>
       </c>
     </row>
     <row r="45">
@@ -2766,19 +2766,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1.349270707102979</v>
+        <v>-0.2205954401193433</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.9158218009664993</v>
+        <v>-1.268952002490462</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.4740251677457324</v>
+        <v>0.6017514096152345</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.9089275303208191</v>
+        <v>-1.358147197745335</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.3813221359206294</v>
+        <v>-3.202514945812956</v>
       </c>
     </row>
     <row r="46">
@@ -2788,19 +2788,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.8705149585750507</v>
+        <v>0.5943118614090683</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.884282138853883</v>
+        <v>0.618184095747397</v>
       </c>
       <c r="D46" t="n">
-        <v>1.759584247957544</v>
+        <v>-3.09629333788727</v>
       </c>
       <c r="E46" t="n">
-        <v>-1.742010711932807</v>
+        <v>-0.1549659197223708</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3453406801835781</v>
+        <v>0.3443295242140847</v>
       </c>
     </row>
     <row r="47">
@@ -2810,19 +2810,19 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.3985396867361229</v>
+        <v>0.642124014501943</v>
       </c>
       <c r="C47" t="n">
-        <v>-1.098872076947083</v>
+        <v>0.1965590213096598</v>
       </c>
       <c r="D47" t="n">
-        <v>-2.18550041885679</v>
+        <v>-1.646254001075184</v>
       </c>
       <c r="E47" t="n">
-        <v>0.06898887880820485</v>
+        <v>-0.8754630658188912</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.08343789455138713</v>
+        <v>0.1508689564485914</v>
       </c>
     </row>
     <row r="48">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-2.239876020774038</v>
+        <v>0.2712726679988368</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.082147904120885</v>
+        <v>0.2319102494084375</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4668192467174667</v>
+        <v>-2.472049761972237</v>
       </c>
       <c r="E48" t="n">
-        <v>3.409573076605251</v>
+        <v>0.8547914039629092</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.904734612043865</v>
+        <v>-1.118892660711077</v>
       </c>
     </row>
     <row r="49">
@@ -2854,19 +2854,19 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.55123870188422</v>
+        <v>-2.480774723628591</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.8880700544437918</v>
+        <v>-0.7708316495608124</v>
       </c>
       <c r="D49" t="n">
-        <v>3.107327645008959</v>
+        <v>0.4035054397336044</v>
       </c>
       <c r="E49" t="n">
-        <v>-3.69149335045525</v>
+        <v>2.854990858685754</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.3619635731562581</v>
+        <v>-2.681670957620669</v>
       </c>
     </row>
     <row r="50">
@@ -2876,19 +2876,19 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.7127163431528915</v>
+        <v>0.3644182585967635</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.3504409642837874</v>
+        <v>-0.2248407342472693</v>
       </c>
       <c r="D50" t="n">
-        <v>1.129051264321928</v>
+        <v>-3.122263150433193</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.3578924225489498</v>
+        <v>2.356305883525412</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.965803759829071</v>
+        <v>-0.2603915148440618</v>
       </c>
     </row>
     <row r="51">
@@ -2898,19 +2898,19 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.4020990466220652</v>
+        <v>1.658412602436367</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.9556979336235419</v>
+        <v>-1.672788112142474</v>
       </c>
       <c r="D51" t="n">
-        <v>1.14604315236262</v>
+        <v>-2.171950046420905</v>
       </c>
       <c r="E51" t="n">
-        <v>-1.167015509232842</v>
+        <v>1.817339102776569</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.5011227848063274</v>
+        <v>1.32104996734162</v>
       </c>
     </row>
     <row r="52">
@@ -2920,19 +2920,19 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-1.762070352803151</v>
+        <v>-1.578953385165903</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.6096638657790306</v>
+        <v>0.8005748387293943</v>
       </c>
       <c r="D52" t="n">
-        <v>1.562860663094606</v>
+        <v>-1.882084242678572</v>
       </c>
       <c r="E52" t="n">
-        <v>-1.73840537279447</v>
+        <v>0.0789010881597569</v>
       </c>
       <c r="F52" t="n">
-        <v>0.6976375868302015</v>
+        <v>-0.2016715650279374</v>
       </c>
     </row>
     <row r="53">
@@ -2942,19 +2942,19 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1.351750890628709</v>
+        <v>-0.8180442157141558</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.714357782611049</v>
+        <v>-0.04918848479050906</v>
       </c>
       <c r="D53" t="n">
-        <v>0.455759820763436</v>
+        <v>-0.4340470334148788</v>
       </c>
       <c r="E53" t="n">
-        <v>-1.408780177209992</v>
+        <v>2.655096103288218</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.871915193603357</v>
+        <v>-0.6332357320436119</v>
       </c>
     </row>
     <row r="54">
@@ -2964,19 +2964,19 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-1.787203575224613</v>
+        <v>-1.956130195443832</v>
       </c>
       <c r="C54" t="n">
-        <v>1.679197346714767</v>
+        <v>0.9347183884479958</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.1650484776836998</v>
+        <v>0.3242674548055919</v>
       </c>
       <c r="E54" t="n">
-        <v>-2.089294264102861</v>
+        <v>1.469482477505398</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.4641507043129875</v>
+        <v>-1.831371568987757</v>
       </c>
     </row>
     <row r="55">
@@ -2986,19 +2986,19 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-1.303983101737038</v>
+        <v>0.05042439096854624</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.116537356781502</v>
+        <v>-2.771238790259992</v>
       </c>
       <c r="D55" t="n">
-        <v>1.472975050353151</v>
+        <v>1.187886726311387</v>
       </c>
       <c r="E55" t="n">
-        <v>-2.80727806924235</v>
+        <v>0.3588220501477841</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.888205840458567</v>
+        <v>-3.466694051197799</v>
       </c>
     </row>
     <row r="56">
@@ -3008,19 +3008,19 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.5323048077127982</v>
+        <v>-1.193682880197912</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6276361523610535</v>
+        <v>0.7066857976501869</v>
       </c>
       <c r="D56" t="n">
-        <v>-2.178103297863059</v>
+        <v>1.460809556731367</v>
       </c>
       <c r="E56" t="n">
-        <v>-1.217737985822092</v>
+        <v>0.3330361089782372</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5262851620160987</v>
+        <v>0.877366603555274</v>
       </c>
     </row>
     <row r="57">
@@ -3030,19 +3030,19 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-2.338063340185943</v>
+        <v>-2.533132679669313</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5877822608851991</v>
+        <v>-0.9730411178320686</v>
       </c>
       <c r="D57" t="n">
-        <v>-1.257902629557899</v>
+        <v>1.107610873064444</v>
       </c>
       <c r="E57" t="n">
-        <v>2.033940451716611</v>
+        <v>2.449677885547783</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.2119759904558857</v>
+        <v>-2.125162176203839</v>
       </c>
     </row>
     <row r="58">
@@ -3052,19 +3052,19 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-2.68025648345488</v>
+        <v>2.670671722429797</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.2385220542861082</v>
+        <v>-1.297590122994008</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6517596841993082</v>
+        <v>0.3466179389930115</v>
       </c>
       <c r="E58" t="n">
-        <v>0.512841868654461</v>
+        <v>-2.541418767675206</v>
       </c>
       <c r="F58" t="n">
-        <v>2.046027049958254</v>
+        <v>-0.261784986638507</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte3/Excel/Network56.xlsx
+++ b/Networks/Parte3/Excel/Network56.xlsx
@@ -724,172 +724,172 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-4.736562772613993</v>
+        <v>2.074093365020162</v>
       </c>
       <c r="C2" t="n">
-        <v>1.927222855031364</v>
+        <v>-2.213757638423349</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.150646432203088</v>
+        <v>-0.5854217600096585</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.4822949914155767</v>
+        <v>-3.164163826562781</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08132570271365788</v>
+        <v>-2.71812411146831</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.408189081765462</v>
+        <v>-1.980427736536782</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.770212530371294</v>
+        <v>-0.868390527128346</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.566003681992418</v>
+        <v>-1.494049105995475</v>
       </c>
       <c r="J2" t="n">
-        <v>-2.000369135536255</v>
+        <v>-4.131246482742642</v>
       </c>
       <c r="K2" t="n">
-        <v>-2.289745146308567</v>
+        <v>-1.91296584660535</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.523798628377304</v>
+        <v>-2.255751198322409</v>
       </c>
       <c r="M2" t="n">
-        <v>-2.225341533563786</v>
+        <v>-0.2492720893302525</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.952599158254118</v>
+        <v>-2.587712325148781</v>
       </c>
       <c r="O2" t="n">
-        <v>-3.823732382681879</v>
+        <v>-3.770174564201061</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9105847905536394</v>
+        <v>-2.115673523376771</v>
       </c>
       <c r="Q2" t="n">
-        <v>-2.506530916647177</v>
+        <v>-2.9055448336321</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.2201562890532651</v>
+        <v>-0.8631108910534616</v>
       </c>
       <c r="S2" t="n">
-        <v>-4.586026602037109</v>
+        <v>-1.697302139318285</v>
       </c>
       <c r="T2" t="n">
-        <v>-4.968953345756661</v>
+        <v>-1.734373283847819</v>
       </c>
       <c r="U2" t="n">
-        <v>1.374401311212208</v>
+        <v>-1.483227482115837</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.794856438014225</v>
+        <v>-1.034090400503742</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.946049926807367</v>
+        <v>-6.979067847149873</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.9120206673001977</v>
+        <v>-2.249446375080416</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.501093799981515</v>
+        <v>-0.2047694762871706</v>
       </c>
       <c r="Z2" t="n">
-        <v>-3.918751693314909</v>
+        <v>2.841351287844423</v>
       </c>
       <c r="AA2" t="n">
-        <v>-2.226536236232154</v>
+        <v>-1.192786691846592</v>
       </c>
       <c r="AB2" t="n">
-        <v>-3.046887152374779</v>
+        <v>-1.415335451280776</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.100928348505996</v>
+        <v>-2.240529226050197</v>
       </c>
       <c r="AD2" t="n">
-        <v>4.274460468719819</v>
+        <v>-1.057897024035877</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.6972162382274958</v>
+        <v>1.892469571718436</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.360918065365756</v>
+        <v>-1.563711357822472</v>
       </c>
       <c r="AG2" t="n">
-        <v>-2.209966970416904</v>
+        <v>1.578395181902214</v>
       </c>
       <c r="AH2" t="n">
-        <v>-1.055514944424707</v>
+        <v>-2.644172525462128</v>
       </c>
       <c r="AI2" t="n">
-        <v>-1.070496638640374</v>
+        <v>2.023440688314833</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-1.4629748765502</v>
+        <v>-1.373018592839762</v>
       </c>
       <c r="AK2" t="n">
-        <v>-2.335590337099777</v>
+        <v>-1.082696808899112</v>
       </c>
       <c r="AL2" t="n">
-        <v>-2.624195932947097</v>
+        <v>-1.652813869370186</v>
       </c>
       <c r="AM2" t="n">
-        <v>-4.457112898695642</v>
+        <v>3.204059332729324</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.5032805934132523</v>
+        <v>-2.738746954841665</v>
       </c>
       <c r="AO2" t="n">
-        <v>-2.987774038767182</v>
+        <v>-1.844481513622877</v>
       </c>
       <c r="AP2" t="n">
-        <v>-5.322020901049321</v>
+        <v>-0.3029138062537747</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-1.438889295955306</v>
+        <v>-1.783118763690769</v>
       </c>
       <c r="AR2" t="n">
-        <v>-5.079777637236231</v>
+        <v>-2.659554500395399</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.6787715357091754</v>
+        <v>-3.772253866622759</v>
       </c>
       <c r="AT2" t="n">
-        <v>-1.223756231340707</v>
+        <v>-3.345745038999015</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.07435096069696016</v>
+        <v>-1.510987824237518</v>
       </c>
       <c r="AV2" t="n">
-        <v>-2.34481538281495</v>
+        <v>0.9985911377237484</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.1791886799533993</v>
+        <v>-2.249446540647318</v>
       </c>
       <c r="AX2" t="n">
-        <v>-1.516216487760057</v>
+        <v>-0.5134812858253912</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.747800888465589</v>
+        <v>-2.012783279178297</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-1.247267995079628</v>
+        <v>1.143117094032456</v>
       </c>
       <c r="BA2" t="n">
-        <v>-1.865475258453739</v>
+        <v>-0.8316242889433979</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.3209851327654635</v>
+        <v>-4.785081074090987</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.6075791448115787</v>
+        <v>0.9764282726303237</v>
       </c>
       <c r="BD2" t="n">
-        <v>-1.767211691490064</v>
+        <v>-1.099938171307544</v>
       </c>
       <c r="BE2" t="n">
-        <v>-2.843787873392262</v>
+        <v>1.257289728765462</v>
       </c>
     </row>
     <row r="3">
@@ -899,172 +899,172 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.6421340176691911</v>
+        <v>-2.48184231154454</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1147319180156666</v>
+        <v>-1.315261884498006</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.86828848253603</v>
+        <v>-2.863544742313772</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4055556196541231</v>
+        <v>2.149472281149877</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9024766063862502</v>
+        <v>-0.89863022984465</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2055325742745156</v>
+        <v>-1.15967917550514</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.7952814774191286</v>
+        <v>-1.089789527726041</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03017606540094582</v>
+        <v>0.2249807697856224</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.224881143291984</v>
+        <v>-1.323636163493885</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.881879591248947</v>
+        <v>-1.549258109291903</v>
       </c>
       <c r="L3" t="n">
-        <v>-5.735919588671791</v>
+        <v>-0.5869746641258633</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.36727448908174</v>
+        <v>0.2480172895840847</v>
       </c>
       <c r="N3" t="n">
-        <v>2.188514078526982</v>
+        <v>0.1066793001649107</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02929151104316</v>
+        <v>3.24269887473</v>
       </c>
       <c r="P3" t="n">
-        <v>0.06728853901761078</v>
+        <v>-1.054903000328212</v>
       </c>
       <c r="Q3" t="n">
-        <v>-1.914178050591393</v>
+        <v>-2.39470897537154</v>
       </c>
       <c r="R3" t="n">
-        <v>0.7729707925977369</v>
+        <v>-5.686913046003784</v>
       </c>
       <c r="S3" t="n">
-        <v>-1.6047416403963</v>
+        <v>1.293961748488657</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.9451625098463508</v>
+        <v>-1.163108494546921</v>
       </c>
       <c r="U3" t="n">
-        <v>1.029570118953347</v>
+        <v>0.3802920858982999</v>
       </c>
       <c r="V3" t="n">
-        <v>0.50843270413261</v>
+        <v>-0.3437901700985864</v>
       </c>
       <c r="W3" t="n">
-        <v>-1.946506589793071</v>
+        <v>-1.229870577161611</v>
       </c>
       <c r="X3" t="n">
-        <v>1.756702146590866</v>
+        <v>0.8069985445485814</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.5916758026490845</v>
+        <v>0.2419147862817808</v>
       </c>
       <c r="Z3" t="n">
-        <v>-1.262815352634333</v>
+        <v>1.052779797458075</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.5098778263644611</v>
+        <v>-0.5562688806290833</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.8444676070029863</v>
+        <v>-0.2627084642887975</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.403746057343889</v>
+        <v>1.790832711968834</v>
       </c>
       <c r="AD3" t="n">
-        <v>-2.17230380374126</v>
+        <v>-0.3959244069663648</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.151164936332356</v>
+        <v>0.5325299279151041</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.3499722501755657</v>
+        <v>0.07639843311235352</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0.5614978386298365</v>
+        <v>1.136227365986535</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.6698791379184843</v>
+        <v>-1.132164836294021</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0.07447219922463566</v>
+        <v>1.479210318996274</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.5480164244958791</v>
+        <v>-0.4943289826436126</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.198443581711824</v>
+        <v>0.4163507270057923</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.204393991510734</v>
+        <v>0.3493864982935873</v>
       </c>
       <c r="AM3" t="n">
-        <v>3.745953657680959</v>
+        <v>-2.385101861934583</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.7957977947378599</v>
+        <v>0.1455746890999688</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.07363706618022529</v>
+        <v>0.0388688238153827</v>
       </c>
       <c r="AP3" t="n">
-        <v>-1.505252435857912</v>
+        <v>0.461961021257154</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-3.478751214398204</v>
+        <v>-0.3356946296491419</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0.7487922165797003</v>
+        <v>-0.728419885399455</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.5954832035052898</v>
+        <v>-0.8130166367325218</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.4196996735759119</v>
+        <v>0.3415521321800499</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.3424682547508642</v>
+        <v>0.7116263434509466</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.979867773872279</v>
+        <v>0.4727632359483427</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.425734675633313</v>
+        <v>-0.2783340561637181</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.4975580603551565</v>
+        <v>0.6699929812732733</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.493637414017745</v>
+        <v>-0.8963279532788121</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.4559596988373125</v>
+        <v>2.422188654980171</v>
       </c>
       <c r="BA3" t="n">
-        <v>-0.1793704575194209</v>
+        <v>-0.4469980205069954</v>
       </c>
       <c r="BB3" t="n">
-        <v>1.766537016682949</v>
+        <v>0.2516467798108172</v>
       </c>
       <c r="BC3" t="n">
-        <v>-1.507933163483222</v>
+        <v>-0.8648857139936682</v>
       </c>
       <c r="BD3" t="n">
-        <v>2.237419568996728</v>
+        <v>0.3541017097770838</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.9766673928608375</v>
+        <v>-0.2382242676919014</v>
       </c>
     </row>
     <row r="4">
@@ -1074,172 +1074,172 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.343794683489698</v>
+        <v>-0.8599152798658498</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.753447483057548</v>
+        <v>-1.617044506870993</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8011214538956869</v>
+        <v>-0.8531390969344891</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.490594419496474</v>
+        <v>0.4596071778972368</v>
       </c>
       <c r="F4" t="n">
-        <v>1.853641412182689</v>
+        <v>0.4199509906093649</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.057392030502561</v>
+        <v>1.355316763159955</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.02388986484457</v>
+        <v>0.5507126439420185</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08422493347339667</v>
+        <v>-0.4540780768859368</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.2407497384747684</v>
+        <v>6.113429855192284</v>
       </c>
       <c r="K4" t="n">
-        <v>-3.30542999656467</v>
+        <v>-0.5954242731754085</v>
       </c>
       <c r="L4" t="n">
-        <v>-2.693405921145921</v>
+        <v>4.803167377313518</v>
       </c>
       <c r="M4" t="n">
-        <v>1.546154178131014</v>
+        <v>-6.356199241600636</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.8117727193456584</v>
+        <v>2.174080341529476</v>
       </c>
       <c r="O4" t="n">
-        <v>4.059973148317282</v>
+        <v>1.066157945360849</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.9665614879824848</v>
+        <v>1.090581281000484</v>
       </c>
       <c r="Q4" t="n">
-        <v>-4.769724756120948</v>
+        <v>-3.542849127838185</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.1668993831255243</v>
+        <v>-3.042742029339163</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.6193999908092728</v>
+        <v>2.90036072877636</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.2374421028386944</v>
+        <v>0.5878491409419602</v>
       </c>
       <c r="U4" t="n">
-        <v>5.621680494090789</v>
+        <v>-1.225602196849425</v>
       </c>
       <c r="V4" t="n">
-        <v>1.559635827669204</v>
+        <v>-0.8371220986264926</v>
       </c>
       <c r="W4" t="n">
-        <v>6.237089298263119</v>
+        <v>1.724556786539559</v>
       </c>
       <c r="X4" t="n">
-        <v>1.049530524007628</v>
+        <v>1.700602561112422</v>
       </c>
       <c r="Y4" t="n">
-        <v>-1.364163516729252</v>
+        <v>-4.527310459510162</v>
       </c>
       <c r="Z4" t="n">
-        <v>-2.511254634194736</v>
+        <v>0.5500269359008546</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.050927754307942</v>
+        <v>-2.526473554641743</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.8417803881155956</v>
+        <v>1.096343368986505</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.8373047046189439</v>
+        <v>3.401841064999607</v>
       </c>
       <c r="AD4" t="n">
-        <v>-3.133884884549075</v>
+        <v>0.2640779415727952</v>
       </c>
       <c r="AE4" t="n">
-        <v>-2.079896148276274</v>
+        <v>2.395990044214792</v>
       </c>
       <c r="AF4" t="n">
-        <v>-3.160631329286489</v>
+        <v>-1.927036144163178</v>
       </c>
       <c r="AG4" t="n">
-        <v>-1.819120216520785</v>
+        <v>2.283599952808245</v>
       </c>
       <c r="AH4" t="n">
-        <v>-5.030311038949691</v>
+        <v>3.013704692659685</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.3214146873506556</v>
+        <v>-1.674956604401417</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-1.009394406745194</v>
+        <v>-1.209296651098159</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.9149527892183522</v>
+        <v>-1.257236915309704</v>
       </c>
       <c r="AL4" t="n">
-        <v>2.055313172152279</v>
+        <v>1.490996503253604</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.301969629978996</v>
+        <v>-2.46173817374119</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.2823922104380474</v>
+        <v>-0.327342268303898</v>
       </c>
       <c r="AO4" t="n">
-        <v>2.254632855622394</v>
+        <v>1.915229992611099</v>
       </c>
       <c r="AP4" t="n">
-        <v>3.490651543993059</v>
+        <v>-3.922372479971846</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-1.576191418137082</v>
+        <v>4.639557219850055</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.22750695818387</v>
+        <v>-0.7833899525394323</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.540717691415817</v>
+        <v>-1.638437272441001</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.6652657878708272</v>
+        <v>-0.08503551866256989</v>
       </c>
       <c r="AU4" t="n">
-        <v>-3.983220080093622</v>
+        <v>-1.336747307568392</v>
       </c>
       <c r="AV4" t="n">
-        <v>2.275079310650721</v>
+        <v>-0.02976625333101466</v>
       </c>
       <c r="AW4" t="n">
-        <v>-5.982207164765383</v>
+        <v>2.871971045516552</v>
       </c>
       <c r="AX4" t="n">
-        <v>2.034743360812864</v>
+        <v>2.203238433826945</v>
       </c>
       <c r="AY4" t="n">
-        <v>-2.438044414494846</v>
+        <v>1.03064746781907</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-3.481807676337203</v>
+        <v>0.740218376205624</v>
       </c>
       <c r="BA4" t="n">
-        <v>-1.93902256622519</v>
+        <v>-1.157343675454944</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.7257472475735119</v>
+        <v>-0.7099052812665103</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.8091870808509578</v>
+        <v>-0.7335778857013685</v>
       </c>
       <c r="BD4" t="n">
-        <v>1.150769571198008</v>
+        <v>-3.796240546365384</v>
       </c>
       <c r="BE4" t="n">
-        <v>-1.864209373046364</v>
+        <v>-1.895471801265739</v>
       </c>
     </row>
     <row r="5">
@@ -1249,172 +1249,172 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.540410982631267</v>
+        <v>2.000376930989949</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.586166360875647</v>
+        <v>1.326026711822867</v>
       </c>
       <c r="D5" t="n">
-        <v>1.486482275106688</v>
+        <v>1.328232624137147</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2004040217337357</v>
+        <v>0.711012649415669</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3268774754669994</v>
+        <v>0.499056898733238</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5846162223007978</v>
+        <v>-0.8113468726529408</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.878384343598045</v>
+        <v>2.087989515527049</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.13187272463115</v>
+        <v>-0.8961610997168429</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.029610226030109</v>
+        <v>-1.36367911406355</v>
       </c>
       <c r="K5" t="n">
-        <v>0.683303267152507</v>
+        <v>0.5201045537012281</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.2667076698796063</v>
+        <v>-1.10275497425235</v>
       </c>
       <c r="M5" t="n">
-        <v>3.110769301931398</v>
+        <v>1.934129642463809</v>
       </c>
       <c r="N5" t="n">
-        <v>1.491739863395271</v>
+        <v>1.619842938255636</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3935683481404444</v>
+        <v>2.452927939769428</v>
       </c>
       <c r="P5" t="n">
-        <v>-3.17754674978597</v>
+        <v>2.74484510960595</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8713049054699179</v>
+        <v>1.262423693866715</v>
       </c>
       <c r="R5" t="n">
-        <v>-2.165020576815996</v>
+        <v>-0.6324624430053287</v>
       </c>
       <c r="S5" t="n">
-        <v>1.002981784125443</v>
+        <v>-0.1336985242942552</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.1374236569153234</v>
+        <v>1.329385858880573</v>
       </c>
       <c r="U5" t="n">
-        <v>-1.289818690356002</v>
+        <v>0.617349320981001</v>
       </c>
       <c r="V5" t="n">
-        <v>-2.270058356217661</v>
+        <v>1.049788006922336</v>
       </c>
       <c r="W5" t="n">
-        <v>-1.616998076458546</v>
+        <v>-0.3633786895304722</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.8831116805863732</v>
+        <v>-1.597009119411524</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.360520856959195</v>
+        <v>1.201062416341557</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.573884173040235</v>
+        <v>-0.1277896176967268</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.3132945202428963</v>
+        <v>1.345679340281462</v>
       </c>
       <c r="AB5" t="n">
-        <v>-1.274407274207707</v>
+        <v>-0.1184002624584292</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.8316802244526112</v>
+        <v>-1.669374099262883</v>
       </c>
       <c r="AD5" t="n">
-        <v>-1.967545337120949</v>
+        <v>0.2345963694985598</v>
       </c>
       <c r="AE5" t="n">
-        <v>-1.190443136816391</v>
+        <v>-1.18853285544179</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.7237809601894086</v>
+        <v>2.169473217292601</v>
       </c>
       <c r="AG5" t="n">
-        <v>-1.30237773687367</v>
+        <v>-1.345157064914519</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.041689383436329</v>
+        <v>-0.1089832286891124</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.8662312592317416</v>
+        <v>-0.9817705135844602</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.5745061783174289</v>
+        <v>0.3132841062255676</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0.1440411436714877</v>
+        <v>0.2253990305006242</v>
       </c>
       <c r="AL5" t="n">
-        <v>2.424086654383701</v>
+        <v>-0.08437486515028517</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.217796883721126</v>
+        <v>-0.6727162541923393</v>
       </c>
       <c r="AN5" t="n">
-        <v>-0.1070687663992755</v>
+        <v>-1.386993123884542</v>
       </c>
       <c r="AO5" t="n">
-        <v>1.883851348113155</v>
+        <v>0.46350168434307</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0.1742305988093898</v>
+        <v>1.373514101241103</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.833632478222474</v>
+        <v>-0.9863900758499767</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.6762980109304089</v>
+        <v>-0.2597703007668641</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.04915705609179751</v>
+        <v>-0.5528775731467316</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.3327008664266145</v>
+        <v>-1.221269920868689</v>
       </c>
       <c r="AU5" t="n">
-        <v>1.064429311307699</v>
+        <v>0.5435539707927262</v>
       </c>
       <c r="AV5" t="n">
-        <v>-1.496615131961229</v>
+        <v>1.139578625703312</v>
       </c>
       <c r="AW5" t="n">
-        <v>1.992284815972386</v>
+        <v>4.994514120176662</v>
       </c>
       <c r="AX5" t="n">
-        <v>-0.3565923365196714</v>
+        <v>-0.5668068271391028</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.3036690776868698</v>
+        <v>0.03397734711833267</v>
       </c>
       <c r="AZ5" t="n">
-        <v>1.959237500380375</v>
+        <v>-1.49688998512934</v>
       </c>
       <c r="BA5" t="n">
-        <v>1.665126282993733</v>
+        <v>-0.1293525703694849</v>
       </c>
       <c r="BB5" t="n">
-        <v>-2.329797953483059</v>
+        <v>1.302173993727633</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.2953711110478842</v>
+        <v>1.267558229513149</v>
       </c>
       <c r="BD5" t="n">
-        <v>-1.578499955731285</v>
+        <v>1.449122649412626</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0.7931241901382308</v>
+        <v>-4.186515744376241</v>
       </c>
     </row>
     <row r="6">
@@ -1424,172 +1424,172 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.395016450884001</v>
+        <v>4.501407428594972</v>
       </c>
       <c r="C6" t="n">
-        <v>1.171297348284483</v>
+        <v>2.914072863996281</v>
       </c>
       <c r="D6" t="n">
-        <v>1.96401975121171</v>
+        <v>1.082775487908939</v>
       </c>
       <c r="E6" t="n">
-        <v>1.315718608162495</v>
+        <v>-0.6778018976258069</v>
       </c>
       <c r="F6" t="n">
-        <v>4.4703400821879</v>
+        <v>0.08714981012878502</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2035069636558591</v>
+        <v>-0.3466502651274971</v>
       </c>
       <c r="H6" t="n">
-        <v>1.520377387316351</v>
+        <v>1.815214342445172</v>
       </c>
       <c r="I6" t="n">
-        <v>3.076992891201914</v>
+        <v>1.527837413425525</v>
       </c>
       <c r="J6" t="n">
-        <v>2.247696343907769</v>
+        <v>-1.017366586907981</v>
       </c>
       <c r="K6" t="n">
-        <v>2.317657939760486</v>
+        <v>-1.095229564947334</v>
       </c>
       <c r="L6" t="n">
-        <v>1.251115988988115</v>
+        <v>0.559426655845749</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6500271249040525</v>
+        <v>-0.3932236560064377</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.6907683329983842</v>
+        <v>0.1608483466487906</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.7554571802116524</v>
+        <v>-1.782388564511685</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3394118435825815</v>
+        <v>0.9576616824833525</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.231924087026443</v>
+        <v>2.277973021100259</v>
       </c>
       <c r="R6" t="n">
-        <v>-3.824619190444887</v>
+        <v>1.122388821967854</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5063233589890022</v>
+        <v>-0.04245837520220752</v>
       </c>
       <c r="T6" t="n">
-        <v>-6.570493835374505</v>
+        <v>1.807499610171057</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.2862855336216344</v>
+        <v>0.7846253372601399</v>
       </c>
       <c r="V6" t="n">
-        <v>1.668783465404911</v>
+        <v>3.080845281474368</v>
       </c>
       <c r="W6" t="n">
-        <v>0.3098695243023337</v>
+        <v>-6.185500570796449</v>
       </c>
       <c r="X6" t="n">
-        <v>0.6411623828548696</v>
+        <v>1.186063161485117</v>
       </c>
       <c r="Y6" t="n">
-        <v>-2.54087838194786</v>
+        <v>-0.0881632088509747</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.440775713582125</v>
+        <v>5.779427771297327</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.413857241455273</v>
+        <v>-0.9232594138033011</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.1108925828568418</v>
+        <v>2.285478430750199</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.963286697177745</v>
+        <v>-1.582031916259434</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.659248141755379</v>
+        <v>0.8135378013084912</v>
       </c>
       <c r="AE6" t="n">
-        <v>5.931242835813574</v>
+        <v>-0.988927071024706</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.7767161023996038</v>
+        <v>-2.472258697016315</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.439339112132075</v>
+        <v>-0.8652115337101435</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.969470195921684</v>
+        <v>-3.328384116683789</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.03750606820100372</v>
+        <v>6.205791865792389</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.9497038434675086</v>
+        <v>0.005052458770690826</v>
       </c>
       <c r="AK6" t="n">
-        <v>-0.3211517217480025</v>
+        <v>0.8286117311236555</v>
       </c>
       <c r="AL6" t="n">
-        <v>-1.023969486217519</v>
+        <v>0.2155817621963646</v>
       </c>
       <c r="AM6" t="n">
-        <v>-1.263672033855066</v>
+        <v>0.5873411803936275</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.720015157357081</v>
+        <v>-0.6049350138280342</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.08497481230148113</v>
+        <v>2.453558794304755</v>
       </c>
       <c r="AP6" t="n">
-        <v>-5.275452181040649</v>
+        <v>-0.1236679823992921</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3.41834747879714</v>
+        <v>0.9069506152815653</v>
       </c>
       <c r="AR6" t="n">
-        <v>-3.152940552947597</v>
+        <v>1.315288183654163</v>
       </c>
       <c r="AS6" t="n">
-        <v>3.242413316598213</v>
+        <v>2.762015781466373</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.178214241268746</v>
+        <v>-1.387729125077606</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.1215244616846897</v>
+        <v>-0.2720645119898457</v>
       </c>
       <c r="AV6" t="n">
-        <v>-2.407081925503253</v>
+        <v>0.1414605476105984</v>
       </c>
       <c r="AW6" t="n">
-        <v>-0.5621375052399921</v>
+        <v>-2.387064156755472</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.262622847806915</v>
+        <v>4.75671726247405</v>
       </c>
       <c r="AY6" t="n">
-        <v>1.43663944567819</v>
+        <v>2.141910247688993</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-1.539639840234868</v>
+        <v>-2.981435728591398</v>
       </c>
       <c r="BA6" t="n">
-        <v>-2.08112314151567</v>
+        <v>-0.676699489821847</v>
       </c>
       <c r="BB6" t="n">
-        <v>-0.2556295469107644</v>
+        <v>-0.1404529555267125</v>
       </c>
       <c r="BC6" t="n">
-        <v>-0.03075932367527539</v>
+        <v>1.123004007667999</v>
       </c>
       <c r="BD6" t="n">
-        <v>-2.963369315824655</v>
+        <v>-0.9308831803734886</v>
       </c>
       <c r="BE6" t="n">
-        <v>1.827649906484409</v>
+        <v>1.094256716514756</v>
       </c>
     </row>
     <row r="7">
@@ -1599,172 +1599,172 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.13841041585972</v>
+        <v>-2.002973124431919</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4130509174084249</v>
+        <v>0.09141535421871254</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.07361589166466</v>
+        <v>4.428478735526453</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01250417309335357</v>
+        <v>-2.094169466891044</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.054419703746822</v>
+        <v>2.842942899268845</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3009419727005515</v>
+        <v>-3.067007120912571</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.3676120263570838</v>
+        <v>-1.889714379348668</v>
       </c>
       <c r="I7" t="n">
-        <v>1.304159214096813</v>
+        <v>2.222983864325239</v>
       </c>
       <c r="J7" t="n">
-        <v>1.360339372687958</v>
+        <v>-1.372907810605149</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.9120620189420635</v>
+        <v>-0.4814801482540288</v>
       </c>
       <c r="L7" t="n">
-        <v>6.271145179313127</v>
+        <v>-0.5855930062519327</v>
       </c>
       <c r="M7" t="n">
-        <v>-4.315305892217111</v>
+        <v>0.6222887609809924</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0660929735423026</v>
+        <v>1.590475173541409</v>
       </c>
       <c r="O7" t="n">
-        <v>-2.616736980257448</v>
+        <v>-0.9893744362328839</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.2586174011912902</v>
+        <v>-3.650413223711273</v>
       </c>
       <c r="Q7" t="n">
-        <v>-1.986673753220361</v>
+        <v>-0.7894595318603262</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3805460111063725</v>
+        <v>6.456697031111472</v>
       </c>
       <c r="S7" t="n">
-        <v>6.752872380319373</v>
+        <v>4.149628223302755</v>
       </c>
       <c r="T7" t="n">
-        <v>1.00408995040141</v>
+        <v>-2.60375817513972</v>
       </c>
       <c r="U7" t="n">
-        <v>2.841609710492126</v>
+        <v>0.6975287960866019</v>
       </c>
       <c r="V7" t="n">
-        <v>0.7702657901980848</v>
+        <v>-0.2106338712995236</v>
       </c>
       <c r="W7" t="n">
-        <v>-1.445720861847872</v>
+        <v>0.6176295120941379</v>
       </c>
       <c r="X7" t="n">
-        <v>4.057524380306203</v>
+        <v>1.969563065708657</v>
       </c>
       <c r="Y7" t="n">
-        <v>-1.358935144902625</v>
+        <v>0.4748580102350934</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.5681575194391264</v>
+        <v>-0.720385461517567</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.684816514504295</v>
+        <v>-0.8663853572792461</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.808272023247235</v>
+        <v>0.7902084216831754</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.819304518337308</v>
+        <v>3.382984394270338</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.823254997081887</v>
+        <v>0.6208592653931035</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.938661222882985</v>
+        <v>-0.4996564090370421</v>
       </c>
       <c r="AF7" t="n">
-        <v>-3.906415699678133</v>
+        <v>-1.129371026287635</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.6741271017153815</v>
+        <v>-0.9321047498454383</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.3716071308029997</v>
+        <v>-0.6666652738031463</v>
       </c>
       <c r="AI7" t="n">
-        <v>-1.322124826725318</v>
+        <v>1.575915168176591</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0.06841988122097084</v>
+        <v>-0.04040278222450326</v>
       </c>
       <c r="AK7" t="n">
-        <v>-1.047090288891012</v>
+        <v>0.1477212972454171</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.443442280167043</v>
+        <v>-2.362725565450029</v>
       </c>
       <c r="AM7" t="n">
-        <v>-3.105556789171704</v>
+        <v>4.544886594577659</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.4785656708919283</v>
+        <v>0.2743003221801832</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.232472274067318</v>
+        <v>0.8802983641509882</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0.2354107103829232</v>
+        <v>0.1127760674963578</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.643196592122528</v>
+        <v>-0.2012851004200608</v>
       </c>
       <c r="AR7" t="n">
-        <v>-0.02721886715463709</v>
+        <v>2.642475232520461</v>
       </c>
       <c r="AS7" t="n">
-        <v>-1.333672221515083</v>
+        <v>2.672814344345007</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.1056051111932993</v>
+        <v>-0.1351731505617852</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.3777198828545954</v>
+        <v>0.551465677781901</v>
       </c>
       <c r="AV7" t="n">
-        <v>2.010887444496113</v>
+        <v>-2.817876447003512</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.7408885867350734</v>
+        <v>-2.181457740454371</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.9831811800726572</v>
+        <v>-0.3452136400124</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.1287300515010396</v>
+        <v>1.459665773995611</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-0.5661489315193613</v>
+        <v>-1.645028536897505</v>
       </c>
       <c r="BA7" t="n">
-        <v>-1.61249129489862</v>
+        <v>-1.771874659633903</v>
       </c>
       <c r="BB7" t="n">
-        <v>3.268914096927454</v>
+        <v>-3.645105023057916</v>
       </c>
       <c r="BC7" t="n">
-        <v>-1.98923623587299</v>
+        <v>-1.229360311892295</v>
       </c>
       <c r="BD7" t="n">
-        <v>1.36295750467611</v>
+        <v>0.2821685489896039</v>
       </c>
       <c r="BE7" t="n">
-        <v>2.421876681853764</v>
+        <v>0.4590656047070351</v>
       </c>
     </row>
   </sheetData>
@@ -1820,19 +1820,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.902531546438103</v>
+        <v>-2.007584303158058</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.908836734521598</v>
+        <v>-1.948277690662691</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.316993211864239</v>
+        <v>-2.646042838559704</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.871429772137607</v>
+        <v>-0.290393581820104</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6940018703718532</v>
+        <v>-0.6270551921996418</v>
       </c>
     </row>
     <row r="3">
@@ -1842,19 +1842,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.686269248586697</v>
+        <v>0.8343419152866455</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.465993124664347</v>
+        <v>-0.2330159509909151</v>
       </c>
       <c r="D3" t="n">
-        <v>1.04168876312841</v>
+        <v>-2.987418932382584</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.715322137500982</v>
+        <v>-3.814028792376673</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.659920026972382</v>
+        <v>2.4395533010981</v>
       </c>
     </row>
     <row r="4">
@@ -1864,19 +1864,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2384506441090836</v>
+        <v>1.008241641959651</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.938273927363273</v>
+        <v>2.480734668978569</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1315927722835478</v>
+        <v>-0.3030224074718874</v>
       </c>
       <c r="E4" t="n">
-        <v>1.554626625894447</v>
+        <v>-2.364255169551762</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04774413072987756</v>
+        <v>-1.577467388932212</v>
       </c>
     </row>
     <row r="5">
@@ -1886,19 +1886,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01077780424351718</v>
+        <v>1.674373072564597</v>
       </c>
       <c r="C5" t="n">
-        <v>1.785839390273015</v>
+        <v>1.206409542974409</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.040278170289408</v>
+        <v>1.442047201494424</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1668991357451398</v>
+        <v>-3.595187669423602</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6701960184951785</v>
+        <v>1.764128227183006</v>
       </c>
     </row>
     <row r="6">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2056203812479533</v>
+        <v>-0.586513173060052</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7582530364169875</v>
+        <v>0.7071759858325007</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.950489980040857</v>
+        <v>1.091158733565267</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.5082321988369969</v>
+        <v>-1.779769101904473</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.8051105150077688</v>
+        <v>0.0503372668858414</v>
       </c>
     </row>
     <row r="7">
@@ -1930,19 +1930,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.537345722951847</v>
+        <v>1.095932458861</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.6088686397540634</v>
+        <v>-0.9158329249666504</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.960651701841484</v>
+        <v>1.191333535599377</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1800009536920915</v>
+        <v>-0.5112526478717119</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.08045339425437056</v>
+        <v>-1.66519308853929</v>
       </c>
     </row>
     <row r="8">
@@ -1952,19 +1952,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7783868483186519</v>
+        <v>-2.003968837594956</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5614697512896371</v>
+        <v>0.9502475181856912</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.283609633795286</v>
+        <v>1.584778591780389</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.09880202502131</v>
+        <v>-0.8292939489667593</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6858239337628085</v>
+        <v>-0.03030098923080778</v>
       </c>
     </row>
     <row r="9">
@@ -1974,19 +1974,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.2967616443036916</v>
+        <v>0.04926455149366959</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.127279304974489</v>
+        <v>1.655681241532245</v>
       </c>
       <c r="D9" t="n">
-        <v>1.001104782882773</v>
+        <v>-1.587591990020673</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5880056699238813</v>
+        <v>-1.840986509138021</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7235082434401494</v>
+        <v>0.1574380185923079</v>
       </c>
     </row>
     <row r="10">
@@ -1996,19 +1996,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.170274644688464</v>
+        <v>1.933757358478894</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.928981746012735</v>
+        <v>-1.792806716191822</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1790159832044959</v>
+        <v>0.2288433441666099</v>
       </c>
       <c r="E10" t="n">
-        <v>1.044211499675402</v>
+        <v>-0.2419883504458656</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.05172944397047984</v>
+        <v>-1.751859512450288</v>
       </c>
     </row>
     <row r="11">
@@ -2018,19 +2018,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.734401991213722</v>
+        <v>-0.08456255714364957</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.052168623112992</v>
+        <v>-2.911710738435599</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3641667492412264</v>
+        <v>1.891492894579296</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4609266168182499</v>
+        <v>-1.731048032238037</v>
       </c>
       <c r="F11" t="n">
-        <v>1.362723767277141</v>
+        <v>0.5271537511596506</v>
       </c>
     </row>
     <row r="12">
@@ -2040,19 +2040,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.4478073958318367</v>
+        <v>-1.393501994321111</v>
       </c>
       <c r="C12" t="n">
-        <v>3.415170086056613</v>
+        <v>0.1247657066101888</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.37286036470686</v>
+        <v>0.2270954412626506</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.402134586959526</v>
+        <v>0.550346270995153</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.247615571188536</v>
+        <v>-1.534723881447541</v>
       </c>
     </row>
     <row r="13">
@@ -2062,19 +2062,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.964737142947986</v>
+        <v>-1.359567837930015</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.7692016484352788</v>
+        <v>-2.460146107012668</v>
       </c>
       <c r="D13" t="n">
-        <v>4.052633684440002</v>
+        <v>0.911419931854095</v>
       </c>
       <c r="E13" t="n">
-        <v>-3.741096486823766</v>
+        <v>-1.59710240215052</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3736458255110542</v>
+        <v>-0.07197645701886926</v>
       </c>
     </row>
     <row r="14">
@@ -2084,19 +2084,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.671103441262151</v>
+        <v>0.113221533192801</v>
       </c>
       <c r="C14" t="n">
-        <v>1.742256257029068</v>
+        <v>0.002518688645272051</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.530330536357873</v>
+        <v>-3.400664323041822</v>
       </c>
       <c r="E14" t="n">
-        <v>-4.7263602865191</v>
+        <v>3.289444791174863</v>
       </c>
       <c r="F14" t="n">
-        <v>1.328383363195524</v>
+        <v>-2.632447738651343</v>
       </c>
     </row>
     <row r="15">
@@ -2106,19 +2106,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.455757896381866</v>
+        <v>1.286444422033888</v>
       </c>
       <c r="C15" t="n">
-        <v>1.303918559374768</v>
+        <v>-2.500906584040174</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.9382790249933527</v>
+        <v>1.511882320276484</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.55386991372757</v>
+        <v>0.1627105352014436</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6728488924357413</v>
+        <v>0.1995524305064346</v>
       </c>
     </row>
     <row r="16">
@@ -2128,19 +2128,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2.193463713110844</v>
+        <v>-1.517579541434951</v>
       </c>
       <c r="C16" t="n">
-        <v>-3.176694604889237</v>
+        <v>0.7737450676828367</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9444416786671153</v>
+        <v>1.614250261734713</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.423635226658869</v>
+        <v>-2.235589930227941</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4913534082093494</v>
+        <v>0.08253068512351279</v>
       </c>
     </row>
     <row r="17">
@@ -2150,19 +2150,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.039836683483088</v>
+        <v>-1.861957408514536</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.867792825294492</v>
+        <v>2.19097228717088</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.124872209315308</v>
+        <v>-1.844273873545676</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1639622125858416</v>
+        <v>-2.83799704504318</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2251797980089712</v>
+        <v>1.176304337375286</v>
       </c>
     </row>
     <row r="18">
@@ -2172,19 +2172,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4205091136326243</v>
+        <v>-0.0766099188916495</v>
       </c>
       <c r="C18" t="n">
-        <v>3.385932808673585</v>
+        <v>3.481649057851018</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.6755321334490914</v>
+        <v>-0.32369868616651</v>
       </c>
       <c r="E18" t="n">
-        <v>-2.636481743738232</v>
+        <v>-2.996580083998724</v>
       </c>
       <c r="F18" t="n">
-        <v>-4.669284320810092</v>
+        <v>-3.535260911476805</v>
       </c>
     </row>
     <row r="19">
@@ -2194,19 +2194,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.680129512843183</v>
+        <v>1.563876368404064</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.620977433515089</v>
+        <v>-0.2900051781642313</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.2503634068900997</v>
+        <v>3.70352996431295</v>
       </c>
       <c r="E19" t="n">
-        <v>3.942599293919562</v>
+        <v>-4.108687529919457</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9602846631855634</v>
+        <v>0.5472360325979622</v>
       </c>
     </row>
     <row r="20">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.79913556299375</v>
+        <v>1.85017777728167</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.5747794522746799</v>
+        <v>-1.978683732376763</v>
       </c>
       <c r="D20" t="n">
-        <v>2.014347854461357</v>
+        <v>-0.9430612585265538</v>
       </c>
       <c r="E20" t="n">
-        <v>-3.697621486878039</v>
+        <v>0.3960193772359029</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.89271000289247</v>
+        <v>-4.914683936747331</v>
       </c>
     </row>
     <row r="21">
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-1.476780782901167</v>
+        <v>-1.435661944330737</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.008318634272589488</v>
+        <v>0.9048102596755935</v>
       </c>
       <c r="D21" t="n">
-        <v>2.339186407961546</v>
+        <v>-2.454570051363707</v>
       </c>
       <c r="E21" t="n">
-        <v>-3.589791732632257</v>
+        <v>-0.9499871489743505</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.363497062610954</v>
+        <v>0.5092938111514738</v>
       </c>
     </row>
     <row r="22">
@@ -2260,19 +2260,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-3.368754655492978</v>
+        <v>1.022397377337218</v>
       </c>
       <c r="C22" t="n">
-        <v>-2.915013417657064</v>
+        <v>0.04572710991986192</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.5539024130386868</v>
+        <v>-2.195624769824946</v>
       </c>
       <c r="E22" t="n">
-        <v>-2.827912538294115</v>
+        <v>-1.616996824108375</v>
       </c>
       <c r="F22" t="n">
-        <v>3.843044075413967</v>
+        <v>-0.5454411552610129</v>
       </c>
     </row>
     <row r="23">
@@ -2282,19 +2282,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.812328041667233</v>
+        <v>0.02880028737007655</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.8835799613264574</v>
+        <v>0.6520183890801231</v>
       </c>
       <c r="D23" t="n">
-        <v>1.039683627041454</v>
+        <v>-0.3217464901291636</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.9424893683932548</v>
+        <v>-3.592775153953744</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.140707280495686</v>
+        <v>-1.567443364457128</v>
       </c>
     </row>
     <row r="24">
@@ -2304,19 +2304,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-2.942384900412749</v>
+        <v>-1.476037572733853</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.07580705626099293</v>
+        <v>-1.388791274246086</v>
       </c>
       <c r="D24" t="n">
-        <v>1.373446117435891</v>
+        <v>1.800231447712786</v>
       </c>
       <c r="E24" t="n">
-        <v>-2.231047283889969</v>
+        <v>-3.924340571597593</v>
       </c>
       <c r="F24" t="n">
-        <v>1.084427535197042</v>
+        <v>-3.196089330600597</v>
       </c>
     </row>
     <row r="25">
@@ -2326,19 +2326,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.072460139457163</v>
+        <v>-0.26773424534505</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.900800968688771</v>
+        <v>-1.71668997706301</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.481533151099293</v>
+        <v>0.8386851554161155</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.9593973997450114</v>
+        <v>-0.573378536105197</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.314237625362438</v>
+        <v>-3.912068127504844</v>
       </c>
     </row>
     <row r="26">
@@ -2348,19 +2348,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-2.577255301445763</v>
+        <v>1.126927505678752</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2065549871297967</v>
+        <v>0.2060081618848852</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.522306577526581</v>
+        <v>-2.367439986109311</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.2465907994909906</v>
+        <v>1.415275394705689</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.688408192379092</v>
+        <v>-2.104171345703077</v>
       </c>
     </row>
     <row r="27">
@@ -2370,19 +2370,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.313579660337611</v>
+        <v>0.0889965002058874</v>
       </c>
       <c r="C27" t="n">
-        <v>2.94050778286907</v>
+        <v>-0.041157533892178</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.062126543436015</v>
+        <v>-4.118772526055634</v>
       </c>
       <c r="E27" t="n">
-        <v>-4.58424471092445</v>
+        <v>1.342086434163008</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.468877741121101</v>
+        <v>0.4137560025309455</v>
       </c>
     </row>
     <row r="28">
@@ -2392,19 +2392,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.2758180054576513</v>
+        <v>-0.5917380404397149</v>
       </c>
       <c r="C28" t="n">
-        <v>-2.434615628090929</v>
+        <v>0.675939641231199</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.216810952057472</v>
+        <v>-0.3902038488707381</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8877797311991056</v>
+        <v>1.780101938815256</v>
       </c>
       <c r="F28" t="n">
-        <v>2.681088012744904</v>
+        <v>-1.364307102075068</v>
       </c>
     </row>
     <row r="29">
@@ -2414,19 +2414,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.286376496089357</v>
+        <v>0.9318283514438523</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01723284621926601</v>
+        <v>-1.776795990552509</v>
       </c>
       <c r="D29" t="n">
-        <v>1.360906819672333</v>
+        <v>-0.6572318416230859</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.02746592263446345</v>
+        <v>0.395135195267365</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.7206501690626259</v>
+        <v>1.519172675343765</v>
       </c>
     </row>
     <row r="30">
@@ -2436,19 +2436,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.028976912170078</v>
+        <v>-1.627652786405398</v>
       </c>
       <c r="C30" t="n">
-        <v>-2.134576795128002</v>
+        <v>-1.783646351070432</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07424177387266728</v>
+        <v>0.8181027181061281</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.3970588855191797</v>
+        <v>2.800482912952463</v>
       </c>
       <c r="F30" t="n">
-        <v>1.137093759226879</v>
+        <v>-4.370941308806687</v>
       </c>
     </row>
     <row r="31">
@@ -2458,19 +2458,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3387820412876129</v>
+        <v>0.1860342495901784</v>
       </c>
       <c r="C31" t="n">
-        <v>-3.732497343313197</v>
+        <v>-1.136668047697416</v>
       </c>
       <c r="D31" t="n">
-        <v>-2.981078810490918</v>
+        <v>-0.1787630173082565</v>
       </c>
       <c r="E31" t="n">
-        <v>3.474373691494313</v>
+        <v>0.01709783023920373</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.14672554666763</v>
+        <v>-0.03137967961103419</v>
       </c>
     </row>
     <row r="32">
@@ -2480,19 +2480,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.4146818786911446</v>
+        <v>-2.383478042861739</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.153077000827018</v>
+        <v>-2.05975954139427</v>
       </c>
       <c r="D32" t="n">
-        <v>-2.335727318711293</v>
+        <v>0.6858740629594158</v>
       </c>
       <c r="E32" t="n">
-        <v>2.671784890042386</v>
+        <v>1.491290657595321</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.97396268465687</v>
+        <v>1.681867068593228</v>
       </c>
     </row>
     <row r="33">
@@ -2502,19 +2502,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-3.313458116090469</v>
+        <v>-2.675639899980285</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.15867570485407</v>
+        <v>0.3826427832426693</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.505154247444703</v>
+        <v>0.3553695123522591</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.9599491177433351</v>
+        <v>2.026883046672038</v>
       </c>
       <c r="F33" t="n">
-        <v>3.590016606787652</v>
+        <v>-1.101985722865174</v>
       </c>
     </row>
     <row r="34">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.291088264924821</v>
+        <v>-2.897238814301944</v>
       </c>
       <c r="C34" t="n">
-        <v>-2.49330379361856</v>
+        <v>-1.991182810765985</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.7399634856181392</v>
+        <v>-0.5464683355328385</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.574832647717831</v>
+        <v>0.6987173395301642</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1766324251382517</v>
+        <v>1.898534218020176</v>
       </c>
     </row>
     <row r="35">
@@ -2546,19 +2546,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2060861925354955</v>
+        <v>-1.230796403659433</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.024535359542938</v>
+        <v>-0.9230279026067476</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.847827919933567</v>
+        <v>1.848602120914838</v>
       </c>
       <c r="E35" t="n">
-        <v>2.874282541138432</v>
+        <v>-1.555912344604493</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.6210258293475962</v>
+        <v>1.300274094805751</v>
       </c>
     </row>
     <row r="36">
@@ -2568,19 +2568,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-1.988991062820184</v>
+        <v>-0.8807100679858337</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3342932738582337</v>
+        <v>-0.5673174855286716</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.2322224297478991</v>
+        <v>-1.99494452113234</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.7072209342126033</v>
+        <v>3.221979645102342</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.07018031208647589</v>
+        <v>-1.133956185648301</v>
       </c>
     </row>
     <row r="37">
@@ -2590,19 +2590,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.06048794020415562</v>
+        <v>0.3412269554365757</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4268197177051662</v>
+        <v>0.4394887160047748</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.944596513281452</v>
+        <v>-0.6064597066928721</v>
       </c>
       <c r="E37" t="n">
-        <v>-1.698936050846958</v>
+        <v>0.004113873030702067</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.5713601933691613</v>
+        <v>-1.322444148613222</v>
       </c>
     </row>
     <row r="38">
@@ -2612,19 +2612,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1.05746486352384</v>
+        <v>0.3477417521609655</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.4564287706782996</v>
+        <v>0.3183822094744531</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4164816484138689</v>
+        <v>-1.765896076898171</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.4834622497428656</v>
+        <v>-0.7617783259965157</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.3173068330699623</v>
+        <v>-0.7958826998503288</v>
       </c>
     </row>
     <row r="39">
@@ -2634,19 +2634,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.4600474820769229</v>
+        <v>-2.101885904227882</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.546970514544331</v>
+        <v>-0.04721328351618537</v>
       </c>
       <c r="D39" t="n">
-        <v>1.452487804592264</v>
+        <v>0.8591577688510978</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.1647988233743757</v>
+        <v>-0.8021497833032226</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.7245253325052441</v>
+        <v>0.2143328308455011</v>
       </c>
     </row>
     <row r="40">
@@ -2656,19 +2656,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.9564643654790634</v>
+        <v>0.6837695566252183</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1493814043320784</v>
+        <v>-2.046125430407309</v>
       </c>
       <c r="D40" t="n">
-        <v>2.536016432557566</v>
+        <v>-2.306580586029903</v>
       </c>
       <c r="E40" t="n">
-        <v>-2.43339573453361</v>
+        <v>2.046949357383534</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3979942660740785</v>
+        <v>-0.6918728547222633</v>
       </c>
     </row>
     <row r="41">
@@ -2678,19 +2678,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.06276729919639731</v>
+        <v>-1.32637204943345</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.6189446403899157</v>
+        <v>-2.141999025559352</v>
       </c>
       <c r="D41" t="n">
-        <v>-1.613771134042789</v>
+        <v>0.822364869821664</v>
       </c>
       <c r="E41" t="n">
-        <v>1.053244440413238</v>
+        <v>-0.4431980631963668</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.07005857760234492</v>
+        <v>-2.252392296801286</v>
       </c>
     </row>
     <row r="42">
@@ -2700,19 +2700,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.5915107825038859</v>
+        <v>0.5063200983672209</v>
       </c>
       <c r="C42" t="n">
-        <v>-2.571746983610327</v>
+        <v>-2.24287735209473</v>
       </c>
       <c r="D42" t="n">
-        <v>1.762487075007527</v>
+        <v>-0.2135673652268944</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5277992146675973</v>
+        <v>1.6417447427251</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.8285141671573839</v>
+        <v>1.600660443703035</v>
       </c>
     </row>
     <row r="43">
@@ -2722,19 +2722,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.07333003626560955</v>
+        <v>-0.4570905937289432</v>
       </c>
       <c r="C43" t="n">
-        <v>-2.125175554280521</v>
+        <v>0.2340798445538624</v>
       </c>
       <c r="D43" t="n">
-        <v>2.388348510588419</v>
+        <v>-1.252817876491575</v>
       </c>
       <c r="E43" t="n">
-        <v>-2.975313292164886</v>
+        <v>2.33440662628569</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4932484312357495</v>
+        <v>-0.6707582338380589</v>
       </c>
     </row>
     <row r="44">
@@ -2744,19 +2744,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.184337328268966</v>
+        <v>-2.130154031876033</v>
       </c>
       <c r="C44" t="n">
-        <v>3.601746369376951</v>
+        <v>-2.395511568210823</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.7456689135911693</v>
+        <v>0.916366535860983</v>
       </c>
       <c r="E44" t="n">
-        <v>-5.094617801002798</v>
+        <v>-1.409475258301773</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.6320366089645767</v>
+        <v>0.3750051449430333</v>
       </c>
     </row>
     <row r="45">
@@ -2766,19 +2766,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.2205954401193433</v>
+        <v>1.989381331445055</v>
       </c>
       <c r="C45" t="n">
-        <v>-1.268952002490462</v>
+        <v>-2.195738888143812</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6017514096152345</v>
+        <v>0.4323289964347963</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.358147197745335</v>
+        <v>-1.467878159566047</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.202514945812956</v>
+        <v>-0.9463336242028747</v>
       </c>
     </row>
     <row r="46">
@@ -2788,19 +2788,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.5943118614090683</v>
+        <v>2.067021802695783</v>
       </c>
       <c r="C46" t="n">
-        <v>0.618184095747397</v>
+        <v>-2.089353488562814</v>
       </c>
       <c r="D46" t="n">
-        <v>-3.09629333788727</v>
+        <v>-0.7887302114352577</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.1549659197223708</v>
+        <v>-4.546563364451297</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3443295242140847</v>
+        <v>-1.106114425288108</v>
       </c>
     </row>
     <row r="47">
@@ -2810,19 +2810,19 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.642124014501943</v>
+        <v>-0.4268683809393228</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1965590213096598</v>
+        <v>-1.587588615290087</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.646254001075184</v>
+        <v>0.4075307457119494</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.8754630658188912</v>
+        <v>-1.140060768495344</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1508689564485914</v>
+        <v>-1.65225985478662</v>
       </c>
     </row>
     <row r="48">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2712726679988368</v>
+        <v>-1.621378292644335</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2319102494084375</v>
+        <v>-0.07544764608010919</v>
       </c>
       <c r="D48" t="n">
-        <v>-2.472049761972237</v>
+        <v>-1.310086789531466</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8547914039629092</v>
+        <v>-1.33754417853428</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.118892660711077</v>
+        <v>-0.4040338893982854</v>
       </c>
     </row>
     <row r="49">
@@ -2854,19 +2854,19 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-2.480774723628591</v>
+        <v>-2.99317017915756</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.7708316495608124</v>
+        <v>-1.158764528496996</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4035054397336044</v>
+        <v>-0.1955239084935234</v>
       </c>
       <c r="E49" t="n">
-        <v>2.854990858685754</v>
+        <v>0.2110762018165639</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.681670957620669</v>
+        <v>0.4067231679984971</v>
       </c>
     </row>
     <row r="50">
@@ -2876,19 +2876,19 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.3644182585967635</v>
+        <v>-2.558025397472247</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.2248407342472693</v>
+        <v>3.798432359953897</v>
       </c>
       <c r="D50" t="n">
-        <v>-3.122263150433193</v>
+        <v>0.8681576682178375</v>
       </c>
       <c r="E50" t="n">
-        <v>2.356305883525412</v>
+        <v>-3.201538767353067</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.2603915148440618</v>
+        <v>0.3792049408264007</v>
       </c>
     </row>
     <row r="51">
@@ -2898,19 +2898,19 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.658412602436367</v>
+        <v>2.506736049673097</v>
       </c>
       <c r="C51" t="n">
-        <v>-1.672788112142474</v>
+        <v>-1.544300139622216</v>
       </c>
       <c r="D51" t="n">
-        <v>-2.171950046420905</v>
+        <v>-3.33571343525372</v>
       </c>
       <c r="E51" t="n">
-        <v>1.817339102776569</v>
+        <v>1.342555070533244</v>
       </c>
       <c r="F51" t="n">
-        <v>1.32104996734162</v>
+        <v>0.6763564370303876</v>
       </c>
     </row>
     <row r="52">
@@ -2920,19 +2920,19 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-1.578953385165903</v>
+        <v>0.5531374603210217</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8005748387293943</v>
+        <v>-1.965764584895281</v>
       </c>
       <c r="D52" t="n">
-        <v>-1.882084242678572</v>
+        <v>-0.7170209809646625</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0789010881597569</v>
+        <v>-0.7066462666392951</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.2016715650279374</v>
+        <v>1.934787655414841</v>
       </c>
     </row>
     <row r="53">
@@ -2942,19 +2942,19 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.8180442157141558</v>
+        <v>-2.181290710036748</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.04918848479050906</v>
+        <v>-3.903478382111435</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.4340470334148788</v>
+        <v>0.01832975086205687</v>
       </c>
       <c r="E53" t="n">
-        <v>2.655096103288218</v>
+        <v>1.296315177335425</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.6332357320436119</v>
+        <v>-0.6537047432135039</v>
       </c>
     </row>
     <row r="54">
@@ -2964,19 +2964,19 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-1.956130195443832</v>
+        <v>-0.5555311347337599</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9347183884479958</v>
+        <v>0.152023491456355</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3242674548055919</v>
+        <v>-0.9154659887334556</v>
       </c>
       <c r="E54" t="n">
-        <v>1.469482477505398</v>
+        <v>-1.298918706059767</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.831371568987757</v>
+        <v>-1.69448973328523</v>
       </c>
     </row>
     <row r="55">
@@ -2986,19 +2986,19 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.05042439096854624</v>
+        <v>-0.2179019667661389</v>
       </c>
       <c r="C55" t="n">
-        <v>-2.771238790259992</v>
+        <v>2.879619263473731</v>
       </c>
       <c r="D55" t="n">
-        <v>1.187886726311387</v>
+        <v>0.756643707187264</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3588220501477841</v>
+        <v>-2.577276792062522</v>
       </c>
       <c r="F55" t="n">
-        <v>-3.466694051197799</v>
+        <v>-3.063094710786419</v>
       </c>
     </row>
     <row r="56">
@@ -3008,19 +3008,19 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-1.193682880197912</v>
+        <v>0.584549073271497</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7066857976501869</v>
+        <v>0.2528432216533654</v>
       </c>
       <c r="D56" t="n">
-        <v>1.460809556731367</v>
+        <v>-1.117924464116134</v>
       </c>
       <c r="E56" t="n">
-        <v>0.3330361089782372</v>
+        <v>-0.2033216546169087</v>
       </c>
       <c r="F56" t="n">
-        <v>0.877366603555274</v>
+        <v>1.6910166423788</v>
       </c>
     </row>
     <row r="57">
@@ -3030,19 +3030,19 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-2.533132679669313</v>
+        <v>-1.097141058445322</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.9730411178320686</v>
+        <v>-0.8733935011679934</v>
       </c>
       <c r="D57" t="n">
-        <v>1.107610873064444</v>
+        <v>-1.812881940768028</v>
       </c>
       <c r="E57" t="n">
-        <v>2.449677885547783</v>
+        <v>1.635580014692733</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.125162176203839</v>
+        <v>-1.000202883937608</v>
       </c>
     </row>
     <row r="58">
@@ -3052,19 +3052,19 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.670671722429797</v>
+        <v>0.02980175832809202</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.297590122994008</v>
+        <v>-4.092576546359389</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3466179389930115</v>
+        <v>-1.00642313214405</v>
       </c>
       <c r="E58" t="n">
-        <v>-2.541418767675206</v>
+        <v>0.1975193264041446</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.261784986638507</v>
+        <v>0.3035042943110991</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte3/Excel/Network56.xlsx
+++ b/Networks/Parte3/Excel/Network56.xlsx
@@ -724,172 +724,172 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.074093365020162</v>
+        <v>-3.802079621911071</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.213757638423349</v>
+        <v>-1.554454829338179</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.5854217600096585</v>
+        <v>-1.480426058331104</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.164163826562781</v>
+        <v>0.8784795723607257</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.71812411146831</v>
+        <v>-3.248716438367067</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.980427736536782</v>
+        <v>-1.695593423872428</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.868390527128346</v>
+        <v>-1.199656494021649</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.494049105995475</v>
+        <v>2.32159811763433</v>
       </c>
       <c r="J2" t="n">
-        <v>-4.131246482742642</v>
+        <v>1.468832294929845</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.91296584660535</v>
+        <v>-0.2082326704357144</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.255751198322409</v>
+        <v>-0.8439608771070409</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.2492720893302525</v>
+        <v>-2.880791914749033</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.587712325148781</v>
+        <v>-1.330963592448948</v>
       </c>
       <c r="O2" t="n">
-        <v>-3.770174564201061</v>
+        <v>1.237628688428478</v>
       </c>
       <c r="P2" t="n">
-        <v>-2.115673523376771</v>
+        <v>-0.3659071395593514</v>
       </c>
       <c r="Q2" t="n">
-        <v>-2.9055448336321</v>
+        <v>1.194262620996267</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.8631108910534616</v>
+        <v>-2.555440991477725</v>
       </c>
       <c r="S2" t="n">
-        <v>-1.697302139318285</v>
+        <v>0.2552306097596945</v>
       </c>
       <c r="T2" t="n">
-        <v>-1.734373283847819</v>
+        <v>-0.8044396338765635</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.483227482115837</v>
+        <v>-2.274349437396498</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.034090400503742</v>
+        <v>-1.866388897523047</v>
       </c>
       <c r="W2" t="n">
-        <v>-6.979067847149873</v>
+        <v>-1.88347447489292</v>
       </c>
       <c r="X2" t="n">
-        <v>-2.249446375080416</v>
+        <v>-2.584031550731155</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.2047694762871706</v>
+        <v>-1.431207949357503</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.841351287844423</v>
+        <v>0.09194537154281514</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1.192786691846592</v>
+        <v>-1.875823387177404</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1.415335451280776</v>
+        <v>-2.03148824747676</v>
       </c>
       <c r="AC2" t="n">
-        <v>-2.240529226050197</v>
+        <v>1.789021595537957</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.057897024035877</v>
+        <v>-2.104602359535499</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.892469571718436</v>
+        <v>-1.101850225063153</v>
       </c>
       <c r="AF2" t="n">
-        <v>-1.563711357822472</v>
+        <v>1.172903754808308</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.578395181902214</v>
+        <v>-1.804882527757775</v>
       </c>
       <c r="AH2" t="n">
-        <v>-2.644172525462128</v>
+        <v>-6.886919322504004</v>
       </c>
       <c r="AI2" t="n">
-        <v>2.023440688314833</v>
+        <v>-0.8823797465099078</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-1.373018592839762</v>
+        <v>0.3781571232002083</v>
       </c>
       <c r="AK2" t="n">
-        <v>-1.082696808899112</v>
+        <v>-1.049355011809923</v>
       </c>
       <c r="AL2" t="n">
-        <v>-1.652813869370186</v>
+        <v>-4.715025739211186</v>
       </c>
       <c r="AM2" t="n">
-        <v>3.204059332729324</v>
+        <v>-1.335548107715023</v>
       </c>
       <c r="AN2" t="n">
-        <v>-2.738746954841665</v>
+        <v>-2.510749440691164</v>
       </c>
       <c r="AO2" t="n">
-        <v>-1.844481513622877</v>
+        <v>-3.099585017111798</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.3029138062537747</v>
+        <v>-5.913798197455411</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-1.783118763690769</v>
+        <v>0.2393043034032121</v>
       </c>
       <c r="AR2" t="n">
-        <v>-2.659554500395399</v>
+        <v>-1.433500493254775</v>
       </c>
       <c r="AS2" t="n">
-        <v>-3.772253866622759</v>
+        <v>-3.036533160306254</v>
       </c>
       <c r="AT2" t="n">
-        <v>-3.345745038999015</v>
+        <v>-1.880229546440354</v>
       </c>
       <c r="AU2" t="n">
-        <v>-1.510987824237518</v>
+        <v>-0.691983094581443</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.9985911377237484</v>
+        <v>-1.686944070950418</v>
       </c>
       <c r="AW2" t="n">
-        <v>-2.249446540647318</v>
+        <v>-2.987292125442183</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.5134812858253912</v>
+        <v>-1.363516087011713</v>
       </c>
       <c r="AY2" t="n">
-        <v>-2.012783279178297</v>
+        <v>-1.951089264568992</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1.143117094032456</v>
+        <v>-2.542136450112291</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.8316242889433979</v>
+        <v>-1.699431965787585</v>
       </c>
       <c r="BB2" t="n">
-        <v>-4.785081074090987</v>
+        <v>0.9719619316324744</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.9764282726303237</v>
+        <v>-1.251800320895275</v>
       </c>
       <c r="BD2" t="n">
-        <v>-1.099938171307544</v>
+        <v>-2.710623711822353</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.257289728765462</v>
+        <v>-0.2919007298385513</v>
       </c>
     </row>
     <row r="3">
@@ -899,172 +899,172 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2.48184231154454</v>
+        <v>-1.760898812907741</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.315261884498006</v>
+        <v>-0.8106504129540116</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.863544742313772</v>
+        <v>0.2958360345926646</v>
       </c>
       <c r="E3" t="n">
-        <v>2.149472281149877</v>
+        <v>1.021720919665074</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.89863022984465</v>
+        <v>-0.7122275756220339</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.15967917550514</v>
+        <v>-0.9448235038173896</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.089789527726041</v>
+        <v>-0.1479266865767006</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2249807697856224</v>
+        <v>2.139380961697951</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.323636163493885</v>
+        <v>3.638277880450378</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.549258109291903</v>
+        <v>0.359863566708979</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.5869746641258633</v>
+        <v>-0.3868282672197213</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2480172895840847</v>
+        <v>-1.00210449105886</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1066793001649107</v>
+        <v>0.2530758284415471</v>
       </c>
       <c r="O3" t="n">
-        <v>3.24269887473</v>
+        <v>0.6517386891256861</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.054903000328212</v>
+        <v>-0.2765270625784461</v>
       </c>
       <c r="Q3" t="n">
-        <v>-2.39470897537154</v>
+        <v>0.6679156320843191</v>
       </c>
       <c r="R3" t="n">
-        <v>-5.686913046003784</v>
+        <v>-1.049425963834863</v>
       </c>
       <c r="S3" t="n">
-        <v>1.293961748488657</v>
+        <v>-0.1796064496225095</v>
       </c>
       <c r="T3" t="n">
-        <v>-1.163108494546921</v>
+        <v>-0.08102159670972325</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3802920858982999</v>
+        <v>-1.919677583580463</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.3437901700985864</v>
+        <v>0.06832881377002964</v>
       </c>
       <c r="W3" t="n">
-        <v>-1.229870577161611</v>
+        <v>1.156454092683444</v>
       </c>
       <c r="X3" t="n">
-        <v>0.8069985445485814</v>
+        <v>2.025417616532303</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.2419147862817808</v>
+        <v>-0.1269630861213876</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.052779797458075</v>
+        <v>-0.9828389519853532</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.5562688806290833</v>
+        <v>-0.1989750595387976</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.2627084642887975</v>
+        <v>-0.4909447146961989</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.790832711968834</v>
+        <v>-0.1116109715782146</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.3959244069663648</v>
+        <v>-0.3237626064269801</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.5325299279151041</v>
+        <v>0.2979550886678877</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.07639843311235352</v>
+        <v>0.703747976485703</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.136227365986535</v>
+        <v>0.2615063046259827</v>
       </c>
       <c r="AH3" t="n">
-        <v>-1.132164836294021</v>
+        <v>-1.346733411398659</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.479210318996274</v>
+        <v>-1.24892422840946</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.4943289826436126</v>
+        <v>2.64056551866515</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.4163507270057923</v>
+        <v>1.779022114901885</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.3493864982935873</v>
+        <v>-1.102481796469108</v>
       </c>
       <c r="AM3" t="n">
-        <v>-2.385101861934583</v>
+        <v>-0.008957627888808672</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.1455746890999688</v>
+        <v>-0.3955808176529022</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.0388688238153827</v>
+        <v>-0.2520004160899312</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.461961021257154</v>
+        <v>4.359356184246283</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0.3356946296491419</v>
+        <v>2.546262545927362</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0.728419885399455</v>
+        <v>0.1481974294390322</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.8130166367325218</v>
+        <v>-1.299240170712395</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.3415521321800499</v>
+        <v>-0.7734433529798143</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.7116263434509466</v>
+        <v>-0.1848923619270476</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.4727632359483427</v>
+        <v>-1.011570728794283</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0.2783340561637181</v>
+        <v>0.9721066402492919</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.6699929812732733</v>
+        <v>0.3309748091786086</v>
       </c>
       <c r="AY3" t="n">
-        <v>-0.8963279532788121</v>
+        <v>-0.5074690602843406</v>
       </c>
       <c r="AZ3" t="n">
-        <v>2.422188654980171</v>
+        <v>-1.650242754740658</v>
       </c>
       <c r="BA3" t="n">
-        <v>-0.4469980205069954</v>
+        <v>-2.401009862758473</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.2516467798108172</v>
+        <v>-1.239271314284315</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0.8648857139936682</v>
+        <v>1.601153702206266</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.3541017097770838</v>
+        <v>-0.6106673555045702</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.2382242676919014</v>
+        <v>0.873949196819131</v>
       </c>
     </row>
     <row r="4">
@@ -1074,172 +1074,172 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8599152798658498</v>
+        <v>-0.3138963661089678</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.617044506870993</v>
+        <v>0.1998860221352771</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8531390969344891</v>
+        <v>1.495393751665266</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4596071778972368</v>
+        <v>-6.177912856160525</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4199509906093649</v>
+        <v>3.870125856899391</v>
       </c>
       <c r="G4" t="n">
-        <v>1.355316763159955</v>
+        <v>0.9654880074591734</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5507126439420185</v>
+        <v>-0.9998653445154383</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4540780768859368</v>
+        <v>2.858763579157169</v>
       </c>
       <c r="J4" t="n">
-        <v>6.113429855192284</v>
+        <v>1.769684090529051</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.5954242731754085</v>
+        <v>-0.02865051323108816</v>
       </c>
       <c r="L4" t="n">
-        <v>4.803167377313518</v>
+        <v>-0.5314527550633953</v>
       </c>
       <c r="M4" t="n">
-        <v>-6.356199241600636</v>
+        <v>-1.987427238625971</v>
       </c>
       <c r="N4" t="n">
-        <v>2.174080341529476</v>
+        <v>1.398983293474095</v>
       </c>
       <c r="O4" t="n">
-        <v>1.066157945360849</v>
+        <v>-2.302126597014856</v>
       </c>
       <c r="P4" t="n">
-        <v>1.090581281000484</v>
+        <v>-6.270614013386878</v>
       </c>
       <c r="Q4" t="n">
-        <v>-3.542849127838185</v>
+        <v>2.483080982887669</v>
       </c>
       <c r="R4" t="n">
-        <v>-3.042742029339163</v>
+        <v>1.166344275222806</v>
       </c>
       <c r="S4" t="n">
-        <v>2.90036072877636</v>
+        <v>1.288506691702065</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5878491409419602</v>
+        <v>-1.108928417015762</v>
       </c>
       <c r="U4" t="n">
-        <v>-1.225602196849425</v>
+        <v>0.1404791941610591</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.8371220986264926</v>
+        <v>0.08573447472176839</v>
       </c>
       <c r="W4" t="n">
-        <v>1.724556786539559</v>
+        <v>3.029620883969875</v>
       </c>
       <c r="X4" t="n">
-        <v>1.700602561112422</v>
+        <v>2.699869836279682</v>
       </c>
       <c r="Y4" t="n">
-        <v>-4.527310459510162</v>
+        <v>0.254021544457635</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.5500269359008546</v>
+        <v>1.722226115364147</v>
       </c>
       <c r="AA4" t="n">
-        <v>-2.526473554641743</v>
+        <v>-0.6318086781665091</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.096343368986505</v>
+        <v>-0.414249258441367</v>
       </c>
       <c r="AC4" t="n">
-        <v>3.401841064999607</v>
+        <v>-2.581730340702002</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.2640779415727952</v>
+        <v>0.5170667379562297</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.395990044214792</v>
+        <v>2.022161477279664</v>
       </c>
       <c r="AF4" t="n">
-        <v>-1.927036144163178</v>
+        <v>-4.182988784329337</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.283599952808245</v>
+        <v>-0.936756553668155</v>
       </c>
       <c r="AH4" t="n">
-        <v>3.013704692659685</v>
+        <v>1.375789012962907</v>
       </c>
       <c r="AI4" t="n">
-        <v>-1.674956604401417</v>
+        <v>-0.1029781732411254</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-1.209296651098159</v>
+        <v>0.4613059131903217</v>
       </c>
       <c r="AK4" t="n">
-        <v>-1.257236915309704</v>
+        <v>1.530450446163189</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.490996503253604</v>
+        <v>1.513650321865612</v>
       </c>
       <c r="AM4" t="n">
-        <v>-2.46173817374119</v>
+        <v>-2.709369507301115</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.327342268303898</v>
+        <v>-1.665076569316625</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.915229992611099</v>
+        <v>2.135244294140741</v>
       </c>
       <c r="AP4" t="n">
-        <v>-3.922372479971846</v>
+        <v>2.461429548036893</v>
       </c>
       <c r="AQ4" t="n">
-        <v>4.639557219850055</v>
+        <v>-0.7448837823401134</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.7833899525394323</v>
+        <v>-1.539847086931359</v>
       </c>
       <c r="AS4" t="n">
-        <v>-1.638437272441001</v>
+        <v>0.9829843568000762</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.08503551866256989</v>
+        <v>-1.372124507082046</v>
       </c>
       <c r="AU4" t="n">
-        <v>-1.336747307568392</v>
+        <v>-0.01876924879027102</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.02976625333101466</v>
+        <v>0.4342739710032736</v>
       </c>
       <c r="AW4" t="n">
-        <v>2.871971045516552</v>
+        <v>2.463367340216586</v>
       </c>
       <c r="AX4" t="n">
-        <v>2.203238433826945</v>
+        <v>0.08603563866759571</v>
       </c>
       <c r="AY4" t="n">
-        <v>1.03064746781907</v>
+        <v>5.247913805777797</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.740218376205624</v>
+        <v>-3.444040660563718</v>
       </c>
       <c r="BA4" t="n">
-        <v>-1.157343675454944</v>
+        <v>-1.374892452801566</v>
       </c>
       <c r="BB4" t="n">
-        <v>-0.7099052812665103</v>
+        <v>0.1666504764346145</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0.7335778857013685</v>
+        <v>0.5932518707388068</v>
       </c>
       <c r="BD4" t="n">
-        <v>-3.796240546365384</v>
+        <v>2.318008568052761</v>
       </c>
       <c r="BE4" t="n">
-        <v>-1.895471801265739</v>
+        <v>-3.69930371194839</v>
       </c>
     </row>
     <row r="5">
@@ -1249,172 +1249,172 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.000376930989949</v>
+        <v>0.3852533527747017</v>
       </c>
       <c r="C5" t="n">
-        <v>1.326026711822867</v>
+        <v>0.7149903135792062</v>
       </c>
       <c r="D5" t="n">
-        <v>1.328232624137147</v>
+        <v>-0.7701218422969448</v>
       </c>
       <c r="E5" t="n">
-        <v>0.711012649415669</v>
+        <v>0.6102711566906421</v>
       </c>
       <c r="F5" t="n">
-        <v>0.499056898733238</v>
+        <v>-0.8745412325338796</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.8113468726529408</v>
+        <v>0.2353733336318341</v>
       </c>
       <c r="H5" t="n">
-        <v>2.087989515527049</v>
+        <v>0.2763534994950643</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.8961610997168429</v>
+        <v>-1.47053362991294</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.36367911406355</v>
+        <v>1.637966347916792</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5201045537012281</v>
+        <v>0.04767237956765725</v>
       </c>
       <c r="L5" t="n">
-        <v>-1.10275497425235</v>
+        <v>1.118481955735696</v>
       </c>
       <c r="M5" t="n">
-        <v>1.934129642463809</v>
+        <v>1.436108043077522</v>
       </c>
       <c r="N5" t="n">
-        <v>1.619842938255636</v>
+        <v>-0.724331664265076</v>
       </c>
       <c r="O5" t="n">
-        <v>2.452927939769428</v>
+        <v>-1.17346855909645</v>
       </c>
       <c r="P5" t="n">
-        <v>2.74484510960595</v>
+        <v>2.411922979799165</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.262423693866715</v>
+        <v>-1.018827377935744</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.6324624430053287</v>
+        <v>2.917008672541166</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.1336985242942552</v>
+        <v>-2.728760538585064</v>
       </c>
       <c r="T5" t="n">
-        <v>1.329385858880573</v>
+        <v>-1.572003409272241</v>
       </c>
       <c r="U5" t="n">
-        <v>0.617349320981001</v>
+        <v>0.2009838066963744</v>
       </c>
       <c r="V5" t="n">
-        <v>1.049788006922336</v>
+        <v>-0.8053069104167933</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.3633786895304722</v>
+        <v>0.2907468421129873</v>
       </c>
       <c r="X5" t="n">
-        <v>-1.597009119411524</v>
+        <v>-1.605517370860654</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.201062416341557</v>
+        <v>-0.3130774202427427</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.1277896176967268</v>
+        <v>-0.5873144630363266</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.345679340281462</v>
+        <v>0.6028974053182115</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.1184002624584292</v>
+        <v>0.8362102252126682</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.669374099262883</v>
+        <v>-5.096703399715454</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.2345963694985598</v>
+        <v>3.369947605295458</v>
       </c>
       <c r="AE5" t="n">
-        <v>-1.18853285544179</v>
+        <v>-0.1098916074484155</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.169473217292601</v>
+        <v>0.7464460595273102</v>
       </c>
       <c r="AG5" t="n">
-        <v>-1.345157064914519</v>
+        <v>0.2595625908272646</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.1089832286891124</v>
+        <v>-0.45415391013081</v>
       </c>
       <c r="AI5" t="n">
-        <v>-0.9817705135844602</v>
+        <v>1.751173083927797</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.3132841062255676</v>
+        <v>-1.533141566223275</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.2253990305006242</v>
+        <v>-0.752872403227011</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0.08437486515028517</v>
+        <v>-0.2398121793810937</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0.6727162541923393</v>
+        <v>1.272110846271145</v>
       </c>
       <c r="AN5" t="n">
-        <v>-1.386993123884542</v>
+        <v>0.963652643189108</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.46350168434307</v>
+        <v>-2.006942653926515</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.373514101241103</v>
+        <v>0.9898717503768927</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0.9863900758499767</v>
+        <v>-2.657285023551028</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.2597703007668641</v>
+        <v>0.6907621104478242</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0.5528775731467316</v>
+        <v>0.3325393464258043</v>
       </c>
       <c r="AT5" t="n">
-        <v>-1.221269920868689</v>
+        <v>1.320394290858948</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.5435539707927262</v>
+        <v>0.2677616047428692</v>
       </c>
       <c r="AV5" t="n">
-        <v>1.139578625703312</v>
+        <v>1.443369342075076</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.994514120176662</v>
+        <v>-0.2064428277381785</v>
       </c>
       <c r="AX5" t="n">
-        <v>-0.5668068271391028</v>
+        <v>0.2990822013816981</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.03397734711833267</v>
+        <v>-0.7357821739857054</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-1.49688998512934</v>
+        <v>1.174289369657586</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0.1293525703694849</v>
+        <v>-1.824209920459537</v>
       </c>
       <c r="BB5" t="n">
-        <v>1.302173993727633</v>
+        <v>1.13490276660392</v>
       </c>
       <c r="BC5" t="n">
-        <v>1.267558229513149</v>
+        <v>-1.695454071829845</v>
       </c>
       <c r="BD5" t="n">
-        <v>1.449122649412626</v>
+        <v>1.54263530351269</v>
       </c>
       <c r="BE5" t="n">
-        <v>-4.186515744376241</v>
+        <v>0.589548415303793</v>
       </c>
     </row>
     <row r="6">
@@ -1424,172 +1424,172 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.501407428594972</v>
+        <v>-7.52859327823181</v>
       </c>
       <c r="C6" t="n">
-        <v>2.914072863996281</v>
+        <v>0.424145732105609</v>
       </c>
       <c r="D6" t="n">
-        <v>1.082775487908939</v>
+        <v>4.184893589091923</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.6778018976258069</v>
+        <v>0.4440704370127931</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08714981012878502</v>
+        <v>-0.8505200417663993</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3466502651274971</v>
+        <v>1.720793752074998</v>
       </c>
       <c r="H6" t="n">
-        <v>1.815214342445172</v>
+        <v>0.09894518919997256</v>
       </c>
       <c r="I6" t="n">
-        <v>1.527837413425525</v>
+        <v>-2.523891542435027</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.017366586907981</v>
+        <v>-1.20637802574358</v>
       </c>
       <c r="K6" t="n">
-        <v>-1.095229564947334</v>
+        <v>2.00852764194179</v>
       </c>
       <c r="L6" t="n">
-        <v>0.559426655845749</v>
+        <v>2.712530137490862</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.3932236560064377</v>
+        <v>2.190879146773644</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1608483466487906</v>
+        <v>3.840789214509143</v>
       </c>
       <c r="O6" t="n">
-        <v>-1.782388564511685</v>
+        <v>1.013592769038292</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9576616824833525</v>
+        <v>-0.8518410500662763</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.277973021100259</v>
+        <v>-0.7522835259749643</v>
       </c>
       <c r="R6" t="n">
-        <v>1.122388821967854</v>
+        <v>0.8701779045238291</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.04245837520220752</v>
+        <v>1.063149808755581</v>
       </c>
       <c r="T6" t="n">
-        <v>1.807499610171057</v>
+        <v>1.000374469265489</v>
       </c>
       <c r="U6" t="n">
-        <v>0.7846253372601399</v>
+        <v>0.1554093483870329</v>
       </c>
       <c r="V6" t="n">
-        <v>3.080845281474368</v>
+        <v>0.2214971822258756</v>
       </c>
       <c r="W6" t="n">
-        <v>-6.185500570796449</v>
+        <v>-0.1977500310915494</v>
       </c>
       <c r="X6" t="n">
-        <v>1.186063161485117</v>
+        <v>-2.164908933261944</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.0881632088509747</v>
+        <v>2.035826579369226</v>
       </c>
       <c r="Z6" t="n">
-        <v>5.779427771297327</v>
+        <v>1.123779965266991</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.9232594138033011</v>
+        <v>-3.514621551641375</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.285478430750199</v>
+        <v>-0.4253932970099818</v>
       </c>
       <c r="AC6" t="n">
-        <v>-1.582031916259434</v>
+        <v>1.952268514908478</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.8135378013084912</v>
+        <v>0.5371562676287861</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.988927071024706</v>
+        <v>0.8485423829116896</v>
       </c>
       <c r="AF6" t="n">
-        <v>-2.472258697016315</v>
+        <v>1.264330876470983</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0.8652115337101435</v>
+        <v>1.370958006837032</v>
       </c>
       <c r="AH6" t="n">
-        <v>-3.328384116683789</v>
+        <v>-6.231746427082769</v>
       </c>
       <c r="AI6" t="n">
-        <v>6.205791865792389</v>
+        <v>0.9322898725687799</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.005052458770690826</v>
+        <v>-0.9068425242938305</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.8286117311236555</v>
+        <v>0.3251209771651983</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.2155817621963646</v>
+        <v>-4.467358086950082</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.5873411803936275</v>
+        <v>-1.552740836020103</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.6049350138280342</v>
+        <v>1.390693666106678</v>
       </c>
       <c r="AO6" t="n">
-        <v>2.453558794304755</v>
+        <v>0.8503478414956871</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0.1236679823992921</v>
+        <v>-1.173223596306928</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.9069506152815653</v>
+        <v>0.4820311480155214</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.315288183654163</v>
+        <v>-0.115495138396554</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.762015781466373</v>
+        <v>-0.4153655288990314</v>
       </c>
       <c r="AT6" t="n">
-        <v>-1.387729125077606</v>
+        <v>1.717038663700424</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.2720645119898457</v>
+        <v>0.9313943269846343</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.1414605476105984</v>
+        <v>0.05245276927136502</v>
       </c>
       <c r="AW6" t="n">
-        <v>-2.387064156755472</v>
+        <v>-0.338503617760349</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.75671726247405</v>
+        <v>0.6373120760317349</v>
       </c>
       <c r="AY6" t="n">
-        <v>2.141910247688993</v>
+        <v>0.3703595421849339</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-2.981435728591398</v>
+        <v>1.900718501396318</v>
       </c>
       <c r="BA6" t="n">
-        <v>-0.676699489821847</v>
+        <v>2.490841623649819</v>
       </c>
       <c r="BB6" t="n">
-        <v>-0.1404529555267125</v>
+        <v>3.4782754724532</v>
       </c>
       <c r="BC6" t="n">
-        <v>1.123004007667999</v>
+        <v>-2.799516830803817</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0.9308831803734886</v>
+        <v>0.4994904548806763</v>
       </c>
       <c r="BE6" t="n">
-        <v>1.094256716514756</v>
+        <v>0.3475732644752833</v>
       </c>
     </row>
     <row r="7">
@@ -1599,172 +1599,172 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.002973124431919</v>
+        <v>0.6214431772613502</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09141535421871254</v>
+        <v>-1.721804537419609</v>
       </c>
       <c r="D7" t="n">
-        <v>4.428478735526453</v>
+        <v>1.363531588938276</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.094169466891044</v>
+        <v>0.6502170071301357</v>
       </c>
       <c r="F7" t="n">
-        <v>2.842942899268845</v>
+        <v>-0.8690243468133809</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.067007120912571</v>
+        <v>1.776071109452774</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.889714379348668</v>
+        <v>-0.6603350742703225</v>
       </c>
       <c r="I7" t="n">
-        <v>2.222983864325239</v>
+        <v>0.3433846720765339</v>
       </c>
       <c r="J7" t="n">
-        <v>-1.372907810605149</v>
+        <v>-3.182041575761849</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.4814801482540288</v>
+        <v>-0.467266591385016</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.5855930062519327</v>
+        <v>-0.4445355279194122</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6222887609809924</v>
+        <v>1.724895438071863</v>
       </c>
       <c r="N7" t="n">
-        <v>1.590475173541409</v>
+        <v>1.083700123850783</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.9893744362328839</v>
+        <v>3.775735769857209</v>
       </c>
       <c r="P7" t="n">
-        <v>-3.650413223711273</v>
+        <v>0.4844925537308932</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.7894595318603262</v>
+        <v>-0.1605630816035908</v>
       </c>
       <c r="R7" t="n">
-        <v>6.456697031111472</v>
+        <v>-3.441920736308836</v>
       </c>
       <c r="S7" t="n">
-        <v>4.149628223302755</v>
+        <v>0.7431364378736065</v>
       </c>
       <c r="T7" t="n">
-        <v>-2.60375817513972</v>
+        <v>1.183451088860531</v>
       </c>
       <c r="U7" t="n">
-        <v>0.6975287960866019</v>
+        <v>2.483500861822291</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.2106338712995236</v>
+        <v>-0.1351800588369831</v>
       </c>
       <c r="W7" t="n">
-        <v>0.6176295120941379</v>
+        <v>2.400440178637328</v>
       </c>
       <c r="X7" t="n">
-        <v>1.969563065708657</v>
+        <v>2.267879521523472</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.4748580102350934</v>
+        <v>0.9070171342228067</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.720385461517567</v>
+        <v>1.877132416399145</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.8663853572792461</v>
+        <v>0.1374338723842716</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.7902084216831754</v>
+        <v>-1.356224852011621</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.382984394270338</v>
+        <v>0.8952451773089631</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.6208592653931035</v>
+        <v>-0.2810304414222408</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0.4996564090370421</v>
+        <v>-0.003929744610748036</v>
       </c>
       <c r="AF7" t="n">
-        <v>-1.129371026287635</v>
+        <v>0.5329463097577661</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0.9321047498454383</v>
+        <v>1.406533907646781</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.6666652738031463</v>
+        <v>0.898279377440266</v>
       </c>
       <c r="AI7" t="n">
-        <v>1.575915168176591</v>
+        <v>-1.912521091310434</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0.04040278222450326</v>
+        <v>-4.583842426129878</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.1477212972454171</v>
+        <v>4.139402380785369</v>
       </c>
       <c r="AL7" t="n">
-        <v>-2.362725565450029</v>
+        <v>0.5196599662899024</v>
       </c>
       <c r="AM7" t="n">
-        <v>4.544886594577659</v>
+        <v>-0.923900101645978</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.2743003221801832</v>
+        <v>2.514369223983846</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.8802983641509882</v>
+        <v>2.309626532658072</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.1127760674963578</v>
+        <v>-6.387273969697333</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0.2012851004200608</v>
+        <v>3.411233641137185</v>
       </c>
       <c r="AR7" t="n">
-        <v>2.642475232520461</v>
+        <v>1.040504045287388</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.672814344345007</v>
+        <v>2.279104701750172</v>
       </c>
       <c r="AT7" t="n">
-        <v>-0.1351731505617852</v>
+        <v>0.1323105436987581</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.551465677781901</v>
+        <v>-1.048838272667294</v>
       </c>
       <c r="AV7" t="n">
-        <v>-2.817876447003512</v>
+        <v>-2.140341060466919</v>
       </c>
       <c r="AW7" t="n">
-        <v>-2.181457740454371</v>
+        <v>-3.686429138136617</v>
       </c>
       <c r="AX7" t="n">
-        <v>-0.3452136400124</v>
+        <v>-0.3082699444818751</v>
       </c>
       <c r="AY7" t="n">
-        <v>1.459665773995611</v>
+        <v>-0.09426302858267983</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-1.645028536897505</v>
+        <v>-0.6060474020925655</v>
       </c>
       <c r="BA7" t="n">
-        <v>-1.771874659633903</v>
+        <v>1.793609253596905</v>
       </c>
       <c r="BB7" t="n">
-        <v>-3.645105023057916</v>
+        <v>-1.542562515131664</v>
       </c>
       <c r="BC7" t="n">
-        <v>-1.229360311892295</v>
+        <v>1.811810504589829</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.2821685489896039</v>
+        <v>2.444838729426914</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.4590656047070351</v>
+        <v>0.2357533624205091</v>
       </c>
     </row>
   </sheetData>
@@ -1820,19 +1820,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.007584303158058</v>
+        <v>-2.204113833045624</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.948277690662691</v>
+        <v>-1.842866928506319</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.646042838559704</v>
+        <v>-2.13954094269748</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.290393581820104</v>
+        <v>-0.5063360209605666</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6270551921996418</v>
+        <v>0.1809942142158807</v>
       </c>
     </row>
     <row r="3">
@@ -1842,19 +1842,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8343419152866455</v>
+        <v>-0.3444307252570312</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2330159509909151</v>
+        <v>0.1617330473766685</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.987418932382584</v>
+        <v>3.937899217494027</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.814028792376673</v>
+        <v>-3.422012529039705</v>
       </c>
       <c r="F3" t="n">
-        <v>2.4395533010981</v>
+        <v>-0.8409296185859769</v>
       </c>
     </row>
     <row r="4">
@@ -1864,19 +1864,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.008241641959651</v>
+        <v>-1.727329740667763</v>
       </c>
       <c r="C4" t="n">
-        <v>2.480734668978569</v>
+        <v>0.1068671316021706</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3030224074718874</v>
+        <v>-0.9949436478171746</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.364255169551762</v>
+        <v>-1.073101567079413</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.577467388932212</v>
+        <v>-0.4467648676696578</v>
       </c>
     </row>
     <row r="5">
@@ -1886,19 +1886,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.674373072564597</v>
+        <v>3.030271887201733</v>
       </c>
       <c r="C5" t="n">
-        <v>1.206409542974409</v>
+        <v>-2.399765162826331</v>
       </c>
       <c r="D5" t="n">
-        <v>1.442047201494424</v>
+        <v>-2.538543590586941</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.595187669423602</v>
+        <v>0.7346319820800501</v>
       </c>
       <c r="F5" t="n">
-        <v>1.764128227183006</v>
+        <v>1.066540127246757</v>
       </c>
     </row>
     <row r="6">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.586513173060052</v>
+        <v>0.5615720059207059</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7071759858325007</v>
+        <v>0.1626370759741175</v>
       </c>
       <c r="D6" t="n">
-        <v>1.091158733565267</v>
+        <v>-2.2481581014153</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.779769101904473</v>
+        <v>2.058588814639314</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0503372668858414</v>
+        <v>-1.493303372577985</v>
       </c>
     </row>
     <row r="7">
@@ -1930,19 +1930,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.095932458861</v>
+        <v>-0.435710663999812</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.9158329249666504</v>
+        <v>-2.231172525966822</v>
       </c>
       <c r="D7" t="n">
-        <v>1.191333535599377</v>
+        <v>0.9511479731944857</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.5112526478717119</v>
+        <v>-1.086892277686981</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.66519308853929</v>
+        <v>-0.912022684438592</v>
       </c>
     </row>
     <row r="8">
@@ -1952,19 +1952,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.003968837594956</v>
+        <v>0.2966163010040437</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9502475181856912</v>
+        <v>-2.162890476664062</v>
       </c>
       <c r="D8" t="n">
-        <v>1.584778591780389</v>
+        <v>-0.2732929744816359</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.8292939489667593</v>
+        <v>-0.5046795473504484</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03030098923080778</v>
+        <v>2.100110524658605</v>
       </c>
     </row>
     <row r="9">
@@ -1974,19 +1974,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04926455149366959</v>
+        <v>-0.2206863327648763</v>
       </c>
       <c r="C9" t="n">
-        <v>1.655681241532245</v>
+        <v>1.138138026739509</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.587591990020673</v>
+        <v>-0.7493639984816044</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.840986509138021</v>
+        <v>0.2728183993870688</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1574380185923079</v>
+        <v>-0.5058211633794523</v>
       </c>
     </row>
     <row r="10">
@@ -1996,19 +1996,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.933757358478894</v>
+        <v>-2.038124003963159</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.792806716191822</v>
+        <v>-3.275506933581606</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2288433441666099</v>
+        <v>-0.5291012991131302</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2419883504458656</v>
+        <v>2.350918292757657</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.751859512450288</v>
+        <v>4.087587460852458</v>
       </c>
     </row>
     <row r="11">
@@ -2018,19 +2018,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.08456255714364957</v>
+        <v>-3.468443432554623</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.911710738435599</v>
+        <v>0.7221537707463958</v>
       </c>
       <c r="D11" t="n">
-        <v>1.891492894579296</v>
+        <v>-2.522335520045593</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.731048032238037</v>
+        <v>1.434138257859365</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5271537511596506</v>
+        <v>0.51849413938934</v>
       </c>
     </row>
     <row r="12">
@@ -2040,19 +2040,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.393501994321111</v>
+        <v>0.07210503803598804</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1247657066101888</v>
+        <v>-0.2576696476849193</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2270954412626506</v>
+        <v>-2.535841990267153</v>
       </c>
       <c r="E12" t="n">
-        <v>0.550346270995153</v>
+        <v>-0.8495483364102823</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.534723881447541</v>
+        <v>-0.5783804590448262</v>
       </c>
     </row>
     <row r="13">
@@ -2062,19 +2062,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.359567837930015</v>
+        <v>-0.424679674547954</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.460146107012668</v>
+        <v>1.342155865627704</v>
       </c>
       <c r="D13" t="n">
-        <v>0.911419931854095</v>
+        <v>-1.360601159896823</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.59710240215052</v>
+        <v>-2.289261563514834</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.07197645701886926</v>
+        <v>-0.2720113710956634</v>
       </c>
     </row>
     <row r="14">
@@ -2084,19 +2084,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.113221533192801</v>
+        <v>1.996956039319073</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002518688645272051</v>
+        <v>1.505835903105786</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.400664323041822</v>
+        <v>-0.02286575642390345</v>
       </c>
       <c r="E14" t="n">
-        <v>3.289444791174863</v>
+        <v>-3.202711427953034</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.632447738651343</v>
+        <v>-1.51564575026436</v>
       </c>
     </row>
     <row r="15">
@@ -2106,19 +2106,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.286444422033888</v>
+        <v>2.857475996533381</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.500906584040174</v>
+        <v>-1.753692781658215</v>
       </c>
       <c r="D15" t="n">
-        <v>1.511882320276484</v>
+        <v>-1.3967298378689</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1627105352014436</v>
+        <v>1.437208174448998</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1995524305064346</v>
+        <v>1.186103635006656</v>
       </c>
     </row>
     <row r="16">
@@ -2128,19 +2128,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.517579541434951</v>
+        <v>1.319949224409236</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7737450676828367</v>
+        <v>-2.509975392054197</v>
       </c>
       <c r="D16" t="n">
-        <v>1.614250261734713</v>
+        <v>-1.157084164986834</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.235589930227941</v>
+        <v>0.463545623641305</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08253068512351279</v>
+        <v>-1.616747539551677</v>
       </c>
     </row>
     <row r="17">
@@ -2150,19 +2150,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.861957408514536</v>
+        <v>0.7857012989253913</v>
       </c>
       <c r="C17" t="n">
-        <v>2.19097228717088</v>
+        <v>1.195184872737709</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.844273873545676</v>
+        <v>-3.405167649227022</v>
       </c>
       <c r="E17" t="n">
-        <v>-2.83799704504318</v>
+        <v>3.241463175094439</v>
       </c>
       <c r="F17" t="n">
-        <v>1.176304337375286</v>
+        <v>-2.301509332969225</v>
       </c>
     </row>
     <row r="18">
@@ -2172,19 +2172,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0766099188916495</v>
+        <v>-2.434887969872134</v>
       </c>
       <c r="C18" t="n">
-        <v>3.481649057851018</v>
+        <v>-2.261504313866516</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.32369868616651</v>
+        <v>0.07553954422165585</v>
       </c>
       <c r="E18" t="n">
-        <v>-2.996580083998724</v>
+        <v>0.3093883719820341</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.535260911476805</v>
+        <v>2.039139923785794</v>
       </c>
     </row>
     <row r="19">
@@ -2194,19 +2194,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.563876368404064</v>
+        <v>-1.869066356286421</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.2900051781642313</v>
+        <v>2.384608229307969</v>
       </c>
       <c r="D19" t="n">
-        <v>3.70352996431295</v>
+        <v>-1.987470655150228</v>
       </c>
       <c r="E19" t="n">
-        <v>-4.108687529919457</v>
+        <v>-2.865477243193371</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5472360325979622</v>
+        <v>1.331160240719713</v>
       </c>
     </row>
     <row r="20">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.85017777728167</v>
+        <v>-1.303458423125169</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.978683732376763</v>
+        <v>-0.01260489364293466</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.9430612585265538</v>
+        <v>-1.066177000615222</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3960193772359029</v>
+        <v>-3.149924869929603</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.914683936747331</v>
+        <v>-0.9302093714968152</v>
       </c>
     </row>
     <row r="21">
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-1.435661944330737</v>
+        <v>0.3609428390502241</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9048102596755935</v>
+        <v>-2.531352688940111</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.454570051363707</v>
+        <v>0.3803994033135064</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.9499871489743505</v>
+        <v>-0.2384189290676098</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5092938111514738</v>
+        <v>-1.412295668702762</v>
       </c>
     </row>
     <row r="22">
@@ -2260,19 +2260,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.022397377337218</v>
+        <v>0.6413787746637943</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04572710991986192</v>
+        <v>-0.5220094534803745</v>
       </c>
       <c r="D22" t="n">
-        <v>-2.195624769824946</v>
+        <v>1.34427627341674</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.616996824108375</v>
+        <v>-1.028777031306674</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.5454411552610129</v>
+        <v>-0.2296753648625734</v>
       </c>
     </row>
     <row r="23">
@@ -2282,19 +2282,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02880028737007655</v>
+        <v>-0.9685141457218673</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6520183890801231</v>
+        <v>-1.454031959204336</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.3217464901291636</v>
+        <v>0.6671653079318751</v>
       </c>
       <c r="E23" t="n">
-        <v>-3.592775153953744</v>
+        <v>0.1020511066837588</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.567443364457128</v>
+        <v>-0.5363023182053195</v>
       </c>
     </row>
     <row r="24">
@@ -2304,19 +2304,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1.476037572733853</v>
+        <v>-0.4703395476676556</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.388791274246086</v>
+        <v>-2.454690540305798</v>
       </c>
       <c r="D24" t="n">
-        <v>1.800231447712786</v>
+        <v>0.1142757100447724</v>
       </c>
       <c r="E24" t="n">
-        <v>-3.924340571597593</v>
+        <v>1.250028245346868</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.196089330600597</v>
+        <v>-3.015120566847726</v>
       </c>
     </row>
     <row r="25">
@@ -2326,19 +2326,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.26773424534505</v>
+        <v>-1.863496883522583</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.71668997706301</v>
+        <v>-0.3946898783798072</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8386851554161155</v>
+        <v>0.7516794228867295</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.573378536105197</v>
+        <v>3.367871261403427</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.912068127504844</v>
+        <v>-2.811359877750355</v>
       </c>
     </row>
     <row r="26">
@@ -2348,19 +2348,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.126927505678752</v>
+        <v>1.001351083008349</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2060081618848852</v>
+        <v>-2.100200059263729</v>
       </c>
       <c r="D26" t="n">
-        <v>-2.367439986109311</v>
+        <v>-1.036850656356559</v>
       </c>
       <c r="E26" t="n">
-        <v>1.415275394705689</v>
+        <v>-0.1669606522091268</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.104171345703077</v>
+        <v>0.02581905082027655</v>
       </c>
     </row>
     <row r="27">
@@ -2370,19 +2370,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0889965002058874</v>
+        <v>0.1243287852977851</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.041157533892178</v>
+        <v>-2.058214656965302</v>
       </c>
       <c r="D27" t="n">
-        <v>-4.118772526055634</v>
+        <v>-0.389063497630432</v>
       </c>
       <c r="E27" t="n">
-        <v>1.342086434163008</v>
+        <v>-1.479436165118365</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4137560025309455</v>
+        <v>2.020227916846373</v>
       </c>
     </row>
     <row r="28">
@@ -2392,19 +2392,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.5917380404397149</v>
+        <v>-1.269548292098593</v>
       </c>
       <c r="C28" t="n">
-        <v>0.675939641231199</v>
+        <v>-0.8337456875110856</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.3902038488707381</v>
+        <v>0.8053280704012136</v>
       </c>
       <c r="E28" t="n">
-        <v>1.780101938815256</v>
+        <v>-1.535876577457486</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.364307102075068</v>
+        <v>-0.6126816759764139</v>
       </c>
     </row>
     <row r="29">
@@ -2414,19 +2414,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9318283514438523</v>
+        <v>-1.535156770513667</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.776795990552509</v>
+        <v>0.5739468224045969</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.6572318416230859</v>
+        <v>-0.0374006215282443</v>
       </c>
       <c r="E29" t="n">
-        <v>0.395135195267365</v>
+        <v>-0.4640415607599102</v>
       </c>
       <c r="F29" t="n">
-        <v>1.519172675343765</v>
+        <v>-1.042259046057724</v>
       </c>
     </row>
     <row r="30">
@@ -2436,19 +2436,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-1.627652786405398</v>
+        <v>0.01406725384801236</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.783646351070432</v>
+        <v>-4.452191684830974</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8181027181061281</v>
+        <v>-0.5517055786103549</v>
       </c>
       <c r="E30" t="n">
-        <v>2.800482912952463</v>
+        <v>2.384678560969815</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.370941308806687</v>
+        <v>1.044519352384638</v>
       </c>
     </row>
     <row r="31">
@@ -2458,19 +2458,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1860342495901784</v>
+        <v>-0.1016625604241788</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.136668047697416</v>
+        <v>2.557266846878158</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.1787630173082565</v>
+        <v>1.101037058518548</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01709783023920373</v>
+        <v>-0.9663353250658313</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.03137967961103419</v>
+        <v>-0.7604573493832584</v>
       </c>
     </row>
     <row r="32">
@@ -2480,19 +2480,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-2.383478042861739</v>
+        <v>-1.564914568544574</v>
       </c>
       <c r="C32" t="n">
-        <v>-2.05975954139427</v>
+        <v>-1.75384136512976</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6858740629594158</v>
+        <v>0.6163406632198445</v>
       </c>
       <c r="E32" t="n">
-        <v>1.491290657595321</v>
+        <v>-0.07719527734976372</v>
       </c>
       <c r="F32" t="n">
-        <v>1.681867068593228</v>
+        <v>0.7981477413655811</v>
       </c>
     </row>
     <row r="33">
@@ -2502,19 +2502,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-2.675639899980285</v>
+        <v>-0.581683409853332</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3826427832426693</v>
+        <v>1.473737861828045</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3553695123522591</v>
+        <v>-2.17438432717327</v>
       </c>
       <c r="E33" t="n">
-        <v>2.026883046672038</v>
+        <v>1.18437198737605</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.101985722865174</v>
+        <v>-0.6867471415351848</v>
       </c>
     </row>
     <row r="34">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-2.897238814301944</v>
+        <v>1.777321483870286</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.991182810765985</v>
+        <v>-0.2235062090718784</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.5464683355328385</v>
+        <v>-1.305344411657442</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6987173395301642</v>
+        <v>-0.788138694559484</v>
       </c>
       <c r="F34" t="n">
-        <v>1.898534218020176</v>
+        <v>-1.159793281562436</v>
       </c>
     </row>
     <row r="35">
@@ -2546,19 +2546,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1.230796403659433</v>
+        <v>-0.5755719444208273</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.9230279026067476</v>
+        <v>-0.2336932669662401</v>
       </c>
       <c r="D35" t="n">
-        <v>1.848602120914838</v>
+        <v>1.709818687672401</v>
       </c>
       <c r="E35" t="n">
-        <v>-1.555912344604493</v>
+        <v>-3.786223014552841</v>
       </c>
       <c r="F35" t="n">
-        <v>1.300274094805751</v>
+        <v>-3.314482192727888</v>
       </c>
     </row>
     <row r="36">
@@ -2568,19 +2568,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.8807100679858337</v>
+        <v>-1.231198284833362</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.5673174855286716</v>
+        <v>1.397507967351529</v>
       </c>
       <c r="D36" t="n">
-        <v>-1.99494452113234</v>
+        <v>-1.865948816560344</v>
       </c>
       <c r="E36" t="n">
-        <v>3.221979645102342</v>
+        <v>-0.1599520920329337</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.133956185648301</v>
+        <v>1.013689237147096</v>
       </c>
     </row>
     <row r="37">
@@ -2590,19 +2590,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3412269554365757</v>
+        <v>-2.380255443776476</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4394887160047748</v>
+        <v>-1.649064591182765</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.6064597066928721</v>
+        <v>-1.987716644869551</v>
       </c>
       <c r="E37" t="n">
-        <v>0.004113873030702067</v>
+        <v>1.927793886837878</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.322444148613222</v>
+        <v>-0.896929121717045</v>
       </c>
     </row>
     <row r="38">
@@ -2612,19 +2612,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.3477417521609655</v>
+        <v>1.405301529420049</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3183822094744531</v>
+        <v>-0.5372655746359208</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.765896076898171</v>
+        <v>-1.464120387928205</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.7617783259965157</v>
+        <v>-1.412074184520808</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.7958826998503288</v>
+        <v>-4.296374256442778</v>
       </c>
     </row>
     <row r="39">
@@ -2634,19 +2634,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-2.101885904227882</v>
+        <v>-0.9599985038227283</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.04721328351618537</v>
+        <v>-0.7442908127844361</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8591577688510978</v>
+        <v>1.726473828672183</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.8021497833032226</v>
+        <v>-1.981131738721373</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2143328308455011</v>
+        <v>-1.109746909382928</v>
       </c>
     </row>
     <row r="40">
@@ -2656,19 +2656,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.6837695566252183</v>
+        <v>-2.106732615274698</v>
       </c>
       <c r="C40" t="n">
-        <v>-2.046125430407309</v>
+        <v>-0.3933375138517808</v>
       </c>
       <c r="D40" t="n">
-        <v>-2.306580586029903</v>
+        <v>-1.123888910699283</v>
       </c>
       <c r="E40" t="n">
-        <v>2.046949357383534</v>
+        <v>1.348095742614823</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.6918728547222633</v>
+        <v>-1.596664802009131</v>
       </c>
     </row>
     <row r="41">
@@ -2678,19 +2678,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1.32637204943345</v>
+        <v>2.225185841199023</v>
       </c>
       <c r="C41" t="n">
-        <v>-2.141999025559352</v>
+        <v>0.8037028532405709</v>
       </c>
       <c r="D41" t="n">
-        <v>0.822364869821664</v>
+        <v>-0.5402749047807061</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.4431980631963668</v>
+        <v>-2.948664340405157</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.252392296801286</v>
+        <v>-0.09329246822775945</v>
       </c>
     </row>
     <row r="42">
@@ -2700,19 +2700,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.5063200983672209</v>
+        <v>0.6031313911402103</v>
       </c>
       <c r="C42" t="n">
-        <v>-2.24287735209473</v>
+        <v>-0.8172807645618253</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.2135673652268944</v>
+        <v>1.427637023670981</v>
       </c>
       <c r="E42" t="n">
-        <v>1.6417447427251</v>
+        <v>-0.7414559389858436</v>
       </c>
       <c r="F42" t="n">
-        <v>1.600660443703035</v>
+        <v>-3.617195818152737</v>
       </c>
     </row>
     <row r="43">
@@ -2722,19 +2722,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.4570905937289432</v>
+        <v>-0.9576616130631225</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2340798445538624</v>
+        <v>1.675908206297972</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.252817876491575</v>
+        <v>3.643213192149278</v>
       </c>
       <c r="E43" t="n">
-        <v>2.33440662628569</v>
+        <v>-5.792577586683065</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.6707582338380589</v>
+        <v>0.4932047530242253</v>
       </c>
     </row>
     <row r="44">
@@ -2744,19 +2744,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-2.130154031876033</v>
+        <v>0.5741059668037628</v>
       </c>
       <c r="C44" t="n">
-        <v>-2.395511568210823</v>
+        <v>-1.974897015319114</v>
       </c>
       <c r="D44" t="n">
-        <v>0.916366535860983</v>
+        <v>-0.2471793026061972</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.409475258301773</v>
+        <v>2.005474886345807</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3750051449430333</v>
+        <v>-2.896804648912915</v>
       </c>
     </row>
     <row r="45">
@@ -2766,19 +2766,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1.989381331445055</v>
+        <v>-0.1877450871742034</v>
       </c>
       <c r="C45" t="n">
-        <v>-2.195738888143812</v>
+        <v>-0.32372968936388</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4323289964347963</v>
+        <v>-1.552827471869301</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.467878159566047</v>
+        <v>-1.389556908643003</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.9463336242028747</v>
+        <v>0.09904463852187534</v>
       </c>
     </row>
     <row r="46">
@@ -2788,19 +2788,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.067021802695783</v>
+        <v>0.5855224644135419</v>
       </c>
       <c r="C46" t="n">
-        <v>-2.089353488562814</v>
+        <v>-0.3468291541902722</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.7887302114352577</v>
+        <v>0.9391455643486715</v>
       </c>
       <c r="E46" t="n">
-        <v>-4.546563364451297</v>
+        <v>-0.7074699451590251</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.106114425288108</v>
+        <v>-1.228522758045009</v>
       </c>
     </row>
     <row r="47">
@@ -2810,19 +2810,19 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.4268683809393228</v>
+        <v>0.6767445817927886</v>
       </c>
       <c r="C47" t="n">
-        <v>-1.587588615290087</v>
+        <v>1.568432487225051</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4075307457119494</v>
+        <v>-0.6767939938911071</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.140060768495344</v>
+        <v>-1.445718473096557</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.65225985478662</v>
+        <v>-1.036853107175194</v>
       </c>
     </row>
     <row r="48">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-1.621378292644335</v>
+        <v>-1.278540827588812</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.07544764608010919</v>
+        <v>0.001296716084432847</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.310086789531466</v>
+        <v>-0.9693808020678378</v>
       </c>
       <c r="E48" t="n">
-        <v>-1.33754417853428</v>
+        <v>0.1269455158634158</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.4040338893982854</v>
+        <v>0.401649500106209</v>
       </c>
     </row>
     <row r="49">
@@ -2854,19 +2854,19 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-2.99317017915756</v>
+        <v>-2.725744787879765</v>
       </c>
       <c r="C49" t="n">
-        <v>-1.158764528496996</v>
+        <v>0.4942100168139562</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.1955239084935234</v>
+        <v>-1.450827468808958</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2110762018165639</v>
+        <v>-1.454863400824671</v>
       </c>
       <c r="F49" t="n">
-        <v>0.4067231679984971</v>
+        <v>-0.5272651226955265</v>
       </c>
     </row>
     <row r="50">
@@ -2876,19 +2876,19 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-2.558025397472247</v>
+        <v>-1.189807433830227</v>
       </c>
       <c r="C50" t="n">
-        <v>3.798432359953897</v>
+        <v>0.04271834870742883</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8681576682178375</v>
+        <v>1.417270695653877</v>
       </c>
       <c r="E50" t="n">
-        <v>-3.201538767353067</v>
+        <v>-1.982036344972943</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3792049408264007</v>
+        <v>-0.1384062700585586</v>
       </c>
     </row>
     <row r="51">
@@ -2898,19 +2898,19 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2.506736049673097</v>
+        <v>-0.02401669569969058</v>
       </c>
       <c r="C51" t="n">
-        <v>-1.544300139622216</v>
+        <v>0.5061099512703017</v>
       </c>
       <c r="D51" t="n">
-        <v>-3.33571343525372</v>
+        <v>0.08174007373531764</v>
       </c>
       <c r="E51" t="n">
-        <v>1.342555070533244</v>
+        <v>0.3867399805424684</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6763564370303876</v>
+        <v>0.5026472342261948</v>
       </c>
     </row>
     <row r="52">
@@ -2920,19 +2920,19 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.5531374603210217</v>
+        <v>-1.403908642402584</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.965764584895281</v>
+        <v>-1.796272043905678</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.7170209809646625</v>
+        <v>1.44104246173733</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.7066462666392951</v>
+        <v>-1.535470900351163</v>
       </c>
       <c r="F52" t="n">
-        <v>1.934787655414841</v>
+        <v>1.445571708580344</v>
       </c>
     </row>
     <row r="53">
@@ -2942,19 +2942,19 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-2.181290710036748</v>
+        <v>-0.8133285519915932</v>
       </c>
       <c r="C53" t="n">
-        <v>-3.903478382111435</v>
+        <v>2.785157778966569</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01832975086205687</v>
+        <v>0.1253025569836919</v>
       </c>
       <c r="E53" t="n">
-        <v>1.296315177335425</v>
+        <v>-3.315015311013553</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.6537047432135039</v>
+        <v>-2.823660642856794</v>
       </c>
     </row>
     <row r="54">
@@ -2964,19 +2964,19 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.5555311347337599</v>
+        <v>2.116127691365445</v>
       </c>
       <c r="C54" t="n">
-        <v>0.152023491456355</v>
+        <v>-0.652744021561141</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.9154659887334556</v>
+        <v>0.2869593979342622</v>
       </c>
       <c r="E54" t="n">
-        <v>-1.298918706059767</v>
+        <v>-4.049338679132974</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.69448973328523</v>
+        <v>0.8572989046596688</v>
       </c>
     </row>
     <row r="55">
@@ -2986,19 +2986,19 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.2179019667661389</v>
+        <v>-0.4166741041321443</v>
       </c>
       <c r="C55" t="n">
-        <v>2.879619263473731</v>
+        <v>-0.9018574025728188</v>
       </c>
       <c r="D55" t="n">
-        <v>0.756643707187264</v>
+        <v>-2.577407259388513</v>
       </c>
       <c r="E55" t="n">
-        <v>-2.577276792062522</v>
+        <v>-2.394469193557463</v>
       </c>
       <c r="F55" t="n">
-        <v>-3.063094710786419</v>
+        <v>0.7414311776566127</v>
       </c>
     </row>
     <row r="56">
@@ -3008,19 +3008,19 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.584549073271497</v>
+        <v>-1.488032176889645</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2528432216533654</v>
+        <v>-1.346101497669497</v>
       </c>
       <c r="D56" t="n">
-        <v>-1.117924464116134</v>
+        <v>1.845087665463119</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2033216546169087</v>
+        <v>1.26728408959241</v>
       </c>
       <c r="F56" t="n">
-        <v>1.6910166423788</v>
+        <v>-1.423889543985712</v>
       </c>
     </row>
     <row r="57">
@@ -3030,19 +3030,19 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-1.097141058445322</v>
+        <v>0.9461798802542317</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.8733935011679934</v>
+        <v>-3.098609876772328</v>
       </c>
       <c r="D57" t="n">
-        <v>-1.812881940768028</v>
+        <v>2.033361242119295</v>
       </c>
       <c r="E57" t="n">
-        <v>1.635580014692733</v>
+        <v>-0.2102558818905511</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.000202883937608</v>
+        <v>1.042352492327523</v>
       </c>
     </row>
     <row r="58">
@@ -3052,19 +3052,19 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.02980175832809202</v>
+        <v>-0.4412743769157814</v>
       </c>
       <c r="C58" t="n">
-        <v>-4.092576546359389</v>
+        <v>-1.730111547638598</v>
       </c>
       <c r="D58" t="n">
-        <v>-1.00642313214405</v>
+        <v>-1.149738728486055</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1975193264041446</v>
+        <v>1.13983725621272</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3035042943110991</v>
+        <v>-1.429153707875927</v>
       </c>
     </row>
   </sheetData>
